--- a/examples/Assets.xlsx
+++ b/examples/Assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danycajas/Dropbox/GitHub/Riskfolio-Lib/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE315A-F9F6-C84E-A36D-2061AD9BB30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F39BE87-EF98-7F4E-97AB-1E8A8A4AE26E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,16 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1001"/>
+  <dimension ref="A1:O974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="15" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -488,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>41648</v>
       </c>
@@ -535,7 +537,7 @@
         <v>4377.607</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>41649</v>
       </c>
@@ -582,7 +584,7 @@
         <v>4390.8580000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>41652</v>
       </c>
@@ -629,7 +631,7 @@
         <v>4392.6670000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>41653</v>
       </c>
@@ -676,7 +678,7 @@
         <v>4381.7730000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>41654</v>
       </c>
@@ -723,7 +725,7 @@
         <v>4371.87</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>41655</v>
       </c>
@@ -770,7 +772,7 @@
         <v>4375.982</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>41656</v>
       </c>
@@ -817,7 +819,7 @@
         <v>4379.83</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>41660</v>
       </c>
@@ -864,7 +866,7 @@
         <v>4271.1610000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>41661</v>
       </c>
@@ -911,7 +913,7 @@
         <v>4282.5889999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>41662</v>
       </c>
@@ -958,7 +960,7 @@
         <v>4286.8339999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>41663</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>4232.0600000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>41666</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>4220.4949999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>41667</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>4178.7809999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>41668</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>4153.9560000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>41669</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>4166.0060000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>41670</v>
       </c>
@@ -1240,7 +1242,7 @@
         <v>4149.3770000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>41673</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>4134.4179999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>41674</v>
       </c>
@@ -1334,7 +1336,7 @@
         <v>4124.6080000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>41675</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>4113.0209999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>41676</v>
       </c>
@@ -1428,7 +1430,7 @@
         <v>4122.7619999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>41677</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>4000.6419999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>41680</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>3995.694</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>41681</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>3993.0830000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>41682</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>4027.6120000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>41683</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>4015.8510000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>41684</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>4018.123</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>41688</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>4021.0149999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>41689</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>4050.0349999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>41690</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>4015.6860000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>41691</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>3987.3919999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>41694</v>
       </c>
@@ -1945,7 +1947,7 @@
         <v>3988.1260000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>41695</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>4005.652</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>41696</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>4035.221</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>41697</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>4076.395</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>41698</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>4114.9840000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>41701</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>4099.1109999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>41702</v>
       </c>
@@ -2227,7 +2229,7 @@
         <v>4108.277</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>41703</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>4111.7150000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>41704</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>4126.0879999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>41705</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>4105.402</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41708</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>4103.1989999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41709</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>4086.3989999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41710</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>4084.3440000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41711</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>4084.1729999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>41712</v>
       </c>
@@ -2603,7 +2605,7 @@
         <v>4094.913</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>41715</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>4112.0420000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>41716</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>4128.1660000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>41717</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>4142.5649999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>41718</v>
       </c>
@@ -2791,7 +2793,7 @@
         <v>4109.42</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>41719</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>4124.0060000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>41722</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>4128.0910000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>41723</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>4137.7359999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>41724</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>4146.2139999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>41725</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>4153.9750000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>41726</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>4152.2520000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>41729</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>4173.0010000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>41730</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>4183.107</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>41731</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>4176.6059999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>41732</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>4177.8450000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>41733</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>4188.08</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>41736</v>
       </c>
@@ -3355,7 +3357,7 @@
         <v>4209.8109999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>41737</v>
       </c>
@@ -3402,7 +3404,7 @@
         <v>4228.9629999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>41738</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>4234.7569999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>41739</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>4242.8010000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>41740</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>4239.2560000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>41743</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>4240.6040000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>41744</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>4249.8370000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>41745</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>4241.759</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>41746</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>4242.76</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>41750</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>4244.3580000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>41751</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>4256.2650000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>41752</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>4267.7129999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>41753</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>4274.6549999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>41754</v>
       </c>
@@ -3966,7 +3968,7 @@
         <v>4273.0330000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>41757</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>4266.8220000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>41758</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>4270.4759999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>41759</v>
       </c>
@@ -4107,7 +4109,7 @@
         <v>4297.9970000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>41760</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>4298.9949999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>41761</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>4325.7929999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>41764</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>4341.0209999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>41765</v>
       </c>
@@ -4295,7 +4297,7 @@
         <v>4337.3850000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>41766</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>4349.8559999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>41767</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>4352.8900000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>41768</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>4361.9279999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>41771</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>4371.3130000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>41772</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>4379.7420000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>41773</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>4386.1000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>41774</v>
       </c>
@@ -4624,7 +4626,7 @@
         <v>4382.1949999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>41775</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>4382.326</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>41778</v>
       </c>
@@ -4718,7 +4720,7 @@
         <v>4381.1080000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>41779</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>4390.8230000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>41780</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>4404.598</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>41781</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>4421.88</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>41782</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>4440.5789999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>41786</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>4442.5169999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>41787</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>4461.2209999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>41788</v>
       </c>
@@ -5047,7 +5049,7 @@
         <v>4472.5140000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>41789</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>4474.509</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>41792</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>4471.8029999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>41793</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>4459.1689999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>41794</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>4446.7870000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>41795</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>4479.259</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>41796</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>4497.7979999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>41799</v>
       </c>
@@ -5376,7 +5378,7 @@
         <v>4500.7759999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>41800</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>4492.8389999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>41801</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>4514.7790000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>41802</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>4529.4250000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>41803</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>4536.2749999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>41806</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>4536.4040000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>41807</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>4523.2110000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>41808</v>
       </c>
@@ -5705,7 +5707,7 @@
         <v>4513.5749999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>41809</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>4538.4830000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>41810</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>4520.7330000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>41813</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>4526.973</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>41814</v>
       </c>
@@ -5893,7 +5895,7 @@
         <v>4532.049</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>41815</v>
       </c>
@@ -5940,7 +5942,7 @@
         <v>4534.2460000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>41816</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>4548.4059999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>41817</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>4557.53</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>41820</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>4567.143</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>41821</v>
       </c>
@@ -6128,7 +6130,7 @@
         <v>4575.2529999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>41822</v>
       </c>
@@ -6175,7 +6177,7 @@
         <v>4563.1130000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>41823</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>4568.2349999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>41827</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>4588.6869999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>41828</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>4592.7879999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>41829</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>4596.5789999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>41830</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>4601.6710000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>41831</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>4627.6469999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>41834</v>
       </c>
@@ -6504,7 +6506,7 @@
         <v>4645.6469999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>41835</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>4668.1610000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>41836</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>4675.2870000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>41837</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>4651.9459999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>41838</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>4654.7610000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>41841</v>
       </c>
@@ -6739,7 +6741,7 @@
         <v>4659.0200000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>41842</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>4659.9380000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>41843</v>
       </c>
@@ -6833,7 +6835,7 @@
         <v>4655.0469999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>41844</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>4653.6319999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>41845</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>4655.0910000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>41848</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>4658.0240000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>41849</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>4659.0020000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>41850</v>
       </c>
@@ -7068,7 +7070,7 @@
         <v>4637.9260000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>41851</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>4640.2179999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>41852</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>4639.3</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>41855</v>
       </c>
@@ -7209,7 +7211,7 @@
         <v>4647.3779999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>41856</v>
       </c>
@@ -7256,7 +7258,7 @@
         <v>4645.68</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>41857</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>4654.6229999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>41858</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>4525.1239999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>41859</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>4501.1369999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>41862</v>
       </c>
@@ -7444,7 +7446,7 @@
         <v>4514.1959999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>41863</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>4523.2089999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>41864</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>4526.9380000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>41865</v>
       </c>
@@ -7585,7 +7587,7 @@
         <v>4535.5550000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>41866</v>
       </c>
@@ -7632,7 +7634,7 @@
         <v>4544.0240000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>41869</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>4530.9269999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>41870</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>4537.241</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>41871</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>4532.9279999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>41872</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>4525.6940000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>41873</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>4531.0050000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>41876</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>4531.7939999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>41877</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>4538.6260000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>41878</v>
       </c>
@@ -8008,7 +8010,7 @@
         <v>4532.1530000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>41879</v>
       </c>
@@ -8055,7 +8057,7 @@
         <v>4523.902</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>41880</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>4526.0339999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>41884</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>4542.7150000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>41885</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>4539.5870000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>41886</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>4549.1220000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>41887</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>4549.4639999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>41890</v>
       </c>
@@ -8337,7 +8339,7 @@
         <v>4551.9750000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>41891</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>4539.2250000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>41892</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>4533.6270000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>41893</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>4531.8069999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>41894</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>4517.1610000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>41897</v>
       </c>
@@ -8572,7 +8574,7 @@
         <v>4495.7460000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>41898</v>
       </c>
@@ -8619,7 +8621,7 @@
         <v>4512.3590000000004</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>41899</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>4508.6019999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>41900</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>4581.6409999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>41901</v>
       </c>
@@ -8760,7 +8762,7 @@
         <v>4586.9989999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>41904</v>
       </c>
@@ -8807,7 +8809,7 @@
         <v>4583.2049999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>41905</v>
       </c>
@@ -8854,7 +8856,7 @@
         <v>4567.5770000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>41906</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>4568.183</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>41907</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>4535.5879999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>41908</v>
       </c>
@@ -8995,7 +8997,7 @@
         <v>4532.0630000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>41911</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>4519.3620000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>41912</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>4533.1970000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>41913</v>
       </c>
@@ -9136,7 +9138,7 @@
         <v>4546.3090000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>41914</v>
       </c>
@@ -9183,7 +9185,7 @@
         <v>4555.6329999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>41915</v>
       </c>
@@ -9230,7 +9232,7 @@
         <v>4559.549</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>41918</v>
       </c>
@@ -9277,7 +9279,7 @@
         <v>4575.335</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>41919</v>
       </c>
@@ -9324,7 +9326,7 @@
         <v>4594.3379999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>41920</v>
       </c>
@@ -9371,7 +9373,7 @@
         <v>4595.2879999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>41921</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>4623.7269999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>41922</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>4614.0240000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>41925</v>
       </c>
@@ -9512,7 +9514,7 @@
         <v>4616.9639999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>41926</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>4629.8779999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>41927</v>
       </c>
@@ -9606,7 +9608,7 @@
         <v>4650.2560000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>41928</v>
       </c>
@@ -9653,7 +9655,7 @@
         <v>4640.2920000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>41929</v>
       </c>
@@ -9700,7 +9702,7 @@
         <v>4655.5630000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>41932</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>4659.1639999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>41933</v>
       </c>
@@ -9794,7 +9796,7 @@
         <v>4654.2610000000004</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>41934</v>
       </c>
@@ -9841,7 +9843,7 @@
         <v>4656.067</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>41935</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>4632.366</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>41936</v>
       </c>
@@ -9935,7 +9937,7 @@
         <v>4632.2110000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>41939</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>4636.7879999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>41940</v>
       </c>
@@ -10029,7 +10031,7 @@
         <v>4622.6840000000002</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>41941</v>
       </c>
@@ -10076,7 +10078,7 @@
         <v>4631.29</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>41942</v>
       </c>
@@ -10123,7 +10125,7 @@
         <v>4645.2</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>41943</v>
       </c>
@@ -10170,7 +10172,7 @@
         <v>4641.03</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>41946</v>
       </c>
@@ -10217,7 +10219,7 @@
         <v>4624.3500000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>41947</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>4612.0010000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>41948</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>4577.7190000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>41949</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>4575.0320000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>41950</v>
       </c>
@@ -10405,7 +10407,7 @@
         <v>4594.4350000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>41953</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>4598.5709999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>41954</v>
       </c>
@@ -10499,7 +10501,7 @@
         <v>4595.9070000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>41955</v>
       </c>
@@ -10546,7 +10548,7 @@
         <v>4589.8410000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>41956</v>
       </c>
@@ -10593,7 +10595,7 @@
         <v>4584.0060000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>41957</v>
       </c>
@@ -10640,7 +10642,7 @@
         <v>4591.4449999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>41960</v>
       </c>
@@ -10687,7 +10689,7 @@
         <v>4601.2950000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>41961</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>4615.1019999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>41962</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>4594.317</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>41963</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>4603.7690000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>41964</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>4615.0479999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>41967</v>
       </c>
@@ -10922,7 +10924,7 @@
         <v>4612.9920000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>41968</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>4634.2629999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>41969</v>
       </c>
@@ -11016,7 +11018,7 @@
         <v>4650.1120000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>41971</v>
       </c>
@@ -11063,7 +11065,7 @@
         <v>4663.6170000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>41974</v>
       </c>
@@ -11110,7 +11112,7 @@
         <v>4687.2659999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>41975</v>
       </c>
@@ -11157,7 +11159,7 @@
         <v>4669.1390000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>41976</v>
       </c>
@@ -11204,7 +11206,7 @@
         <v>4665.1639999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>41977</v>
       </c>
@@ -11251,7 +11253,7 @@
         <v>4669.6289999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>41978</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>4665.768</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>41981</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>4668.6719999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>41982</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>4662.99</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>41983</v>
       </c>
@@ -11439,7 +11441,7 @@
         <v>4661.0709999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>41984</v>
       </c>
@@ -11486,7 +11488,7 @@
         <v>4635.9859999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>41985</v>
       </c>
@@ -11533,7 +11535,7 @@
         <v>4643.3609999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>41988</v>
       </c>
@@ -11580,7 +11582,7 @@
         <v>4634.4089999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>41989</v>
       </c>
@@ -11627,7 +11629,7 @@
         <v>4622.9740000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>41990</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>4645.8100000000004</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>41991</v>
       </c>
@@ -11721,7 +11723,7 @@
         <v>4651.7569999999996</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>41992</v>
       </c>
@@ -11768,7 +11770,7 @@
         <v>4642.7370000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>41995</v>
       </c>
@@ -11815,7 +11817,7 @@
         <v>4647.5780000000004</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>41996</v>
       </c>
@@ -11862,7 +11864,7 @@
         <v>4644.5630000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>41997</v>
       </c>
@@ -11909,7 +11911,7 @@
         <v>4646.0600000000004</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>41999</v>
       </c>
@@ -11956,7 +11958,7 @@
         <v>4647.1859999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>42002</v>
       </c>
@@ -12003,7 +12005,7 @@
         <v>4643.817</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>42003</v>
       </c>
@@ -12050,7 +12052,7 @@
         <v>4639.3980000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>42004</v>
       </c>
@@ -12097,7 +12099,7 @@
         <v>4646.6390000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>42006</v>
       </c>
@@ -12144,7 +12146,7 @@
         <v>4655.5550000000003</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>42009</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>4638.1559999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>42010</v>
       </c>
@@ -12238,7 +12240,7 @@
         <v>4652.2420000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>42011</v>
       </c>
@@ -12285,7 +12287,7 @@
         <v>4660.2759999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>42012</v>
       </c>
@@ -12332,7 +12334,7 @@
         <v>4670.5889999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>42013</v>
       </c>
@@ -12379,7 +12381,7 @@
         <v>4671.68</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>42016</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>4671.7309999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>42017</v>
       </c>
@@ -12473,7 +12475,7 @@
         <v>4674.75</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>42018</v>
       </c>
@@ -12520,7 +12522,7 @@
         <v>4692.9009999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>42019</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>4699.45</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>42020</v>
       </c>
@@ -12614,7 +12616,7 @@
         <v>4736.7449999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>42024</v>
       </c>
@@ -12661,7 +12663,7 @@
         <v>4746.0969999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>42025</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>4719.2849999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>42026</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>4746.3639999999996</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>42027</v>
       </c>
@@ -12802,7 +12804,7 @@
         <v>4765.567</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>42030</v>
       </c>
@@ -12849,7 +12851,7 @@
         <v>4767.7780000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>42031</v>
       </c>
@@ -12896,7 +12898,7 @@
         <v>4778.1109999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>42032</v>
       </c>
@@ -12943,7 +12945,7 @@
         <v>4765.5910000000003</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>42033</v>
       </c>
@@ -12990,7 +12992,7 @@
         <v>4746.8500000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>42034</v>
       </c>
@@ -13037,7 +13039,7 @@
         <v>4748.2579999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>42037</v>
       </c>
@@ -13084,7 +13086,7 @@
         <v>4750.68</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>42038</v>
       </c>
@@ -13131,7 +13133,7 @@
         <v>4759.9170000000004</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>42039</v>
       </c>
@@ -13178,7 +13180,7 @@
         <v>4756.3090000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>42040</v>
       </c>
@@ -13225,7 +13227,7 @@
         <v>4754.9390000000003</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>42041</v>
       </c>
@@ -13272,7 +13274,7 @@
         <v>4731.9889999999996</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>42044</v>
       </c>
@@ -13319,7 +13321,7 @@
         <v>4597.826</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>42045</v>
       </c>
@@ -13366,7 +13368,7 @@
         <v>4603.4660000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>42046</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>4602.6509999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>42047</v>
       </c>
@@ -13460,7 +13462,7 @@
         <v>4608.5600000000004</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>42048</v>
       </c>
@@ -13507,7 +13509,7 @@
         <v>4608.1490000000003</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>42051</v>
       </c>
@@ -13554,7 +13556,7 @@
         <v>4610.4040000000005</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>42052</v>
       </c>
@@ -13601,7 +13603,7 @@
         <v>4597.4579999999996</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>42054</v>
       </c>
@@ -13648,7 +13650,7 @@
         <v>4569.0370000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>42055</v>
       </c>
@@ -13695,7 +13697,7 @@
         <v>4571.8590000000004</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>42058</v>
       </c>
@@ -13742,7 +13744,7 @@
         <v>4580.6930000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>42059</v>
       </c>
@@ -13789,7 +13791,7 @@
         <v>4589.3180000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>42060</v>
       </c>
@@ -13836,7 +13838,7 @@
         <v>4585.8019999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>42061</v>
       </c>
@@ -13883,7 +13885,7 @@
         <v>4584.13</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>42062</v>
       </c>
@@ -13930,7 +13932,7 @@
         <v>4599.8810000000003</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>42065</v>
       </c>
@@ -13977,7 +13979,7 @@
         <v>4595.8280000000004</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>42066</v>
       </c>
@@ -14024,7 +14026,7 @@
         <v>4591.9780000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>42067</v>
       </c>
@@ -14071,7 +14073,7 @@
         <v>4583.8680000000004</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>42068</v>
       </c>
@@ -14118,7 +14120,7 @@
         <v>4583.97</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>42069</v>
       </c>
@@ -14165,7 +14167,7 @@
         <v>4559.5439999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>42072</v>
       </c>
@@ -14212,7 +14214,7 @@
         <v>4557.1260000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>42073</v>
       </c>
@@ -14259,7 +14261,7 @@
         <v>4549.4719999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>42074</v>
       </c>
@@ -14306,7 +14308,7 @@
         <v>4545.3710000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>42075</v>
       </c>
@@ -14353,7 +14355,7 @@
         <v>4543.6949999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>42076</v>
       </c>
@@ -14400,7 +14402,7 @@
         <v>4516.8649999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>42079</v>
       </c>
@@ -14447,7 +14449,7 @@
         <v>4504.5439999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>42080</v>
       </c>
@@ -14494,7 +14496,7 @@
         <v>4507.125</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>42081</v>
       </c>
@@ -14541,7 +14543,7 @@
         <v>4511.5780000000004</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>42082</v>
       </c>
@@ -14588,7 +14590,7 @@
         <v>4519.6379999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>42083</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>4529.6570000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>42086</v>
       </c>
@@ -14682,7 +14684,7 @@
         <v>4533.1760000000004</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>42087</v>
       </c>
@@ -14729,7 +14731,7 @@
         <v>4537.335</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>42088</v>
       </c>
@@ -14776,7 +14778,7 @@
         <v>4543.7719999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>42089</v>
       </c>
@@ -14823,7 +14825,7 @@
         <v>4533.6130000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>42090</v>
       </c>
@@ -14870,7 +14872,7 @@
         <v>4528.7030000000004</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>42093</v>
       </c>
@@ -14917,7 +14919,7 @@
         <v>4542.1289999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>42094</v>
       </c>
@@ -14964,7 +14966,7 @@
         <v>4555.1679999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>42095</v>
       </c>
@@ -15011,7 +15013,7 @@
         <v>4569.924</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>42096</v>
       </c>
@@ -15058,7 +15060,7 @@
         <v>4570.915</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>42100</v>
       </c>
@@ -15105,7 +15107,7 @@
         <v>4606.0060000000003</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>42101</v>
       </c>
@@ -15152,7 +15154,7 @@
         <v>4593.4669999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>42102</v>
       </c>
@@ -15199,7 +15201,7 @@
         <v>4591.1679999999997</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>42103</v>
       </c>
@@ -15246,7 +15248,7 @@
         <v>4586.4660000000003</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>42104</v>
       </c>
@@ -15293,7 +15295,7 @@
         <v>4586.05</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>42107</v>
       </c>
@@ -15340,7 +15342,7 @@
         <v>4574.05</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>42108</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>4576.5649999999996</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>42109</v>
       </c>
@@ -15434,7 +15436,7 @@
         <v>4573.1360000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>42110</v>
       </c>
@@ -15481,7 +15483,7 @@
         <v>4559.0609999999997</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>42111</v>
       </c>
@@ -15528,7 +15530,7 @@
         <v>4560.0370000000003</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>42114</v>
       </c>
@@ -15575,7 +15577,7 @@
         <v>4566.2740000000003</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>42115</v>
       </c>
@@ -15622,7 +15624,7 @@
         <v>4561.884</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>42116</v>
       </c>
@@ -15669,7 +15671,7 @@
         <v>4564.8940000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>42117</v>
       </c>
@@ -15716,7 +15718,7 @@
         <v>4560.6139999999996</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>42118</v>
       </c>
@@ -15763,7 +15765,7 @@
         <v>4555.22</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>42121</v>
       </c>
@@ -15810,7 +15812,7 @@
         <v>4556.2550000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>42122</v>
       </c>
@@ -15857,7 +15859,7 @@
         <v>4574.2269999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>42123</v>
       </c>
@@ -15904,7 +15906,7 @@
         <v>4562.5209999999997</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>42124</v>
       </c>
@@ -15951,7 +15953,7 @@
         <v>4560.8440000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>42125</v>
       </c>
@@ -15998,7 +16000,7 @@
         <v>4562.0240000000003</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>42128</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>4540.6270000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>42129</v>
       </c>
@@ -16092,7 +16094,7 @@
         <v>4532.3980000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>42130</v>
       </c>
@@ -16139,7 +16141,7 @@
         <v>4510.4709999999995</v>
       </c>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>42131</v>
       </c>
@@ -16186,7 +16188,7 @@
         <v>4517.2709999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>42132</v>
       </c>
@@ -16233,7 +16235,7 @@
         <v>4541.8339999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>42135</v>
       </c>
@@ -16280,7 +16282,7 @@
         <v>4530.5559999999996</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>42136</v>
       </c>
@@ -16327,7 +16329,7 @@
         <v>4527.2659999999996</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>42137</v>
       </c>
@@ -16374,7 +16376,7 @@
         <v>4523.1859999999997</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>42138</v>
       </c>
@@ -16421,7 +16423,7 @@
         <v>4521.96</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>42139</v>
       </c>
@@ -16468,7 +16470,7 @@
         <v>4521.9369999999999</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>42142</v>
       </c>
@@ -16515,7 +16517,7 @@
         <v>4522.268</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>42143</v>
       </c>
@@ -16562,7 +16564,7 @@
         <v>4526.8040000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>42144</v>
       </c>
@@ -16609,7 +16611,7 @@
         <v>4519.4120000000003</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>42145</v>
       </c>
@@ -16656,7 +16658,7 @@
         <v>4523.268</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>42146</v>
       </c>
@@ -16703,7 +16705,7 @@
         <v>4524.33</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>42150</v>
       </c>
@@ -16750,7 +16752,7 @@
         <v>4524.6819999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>42151</v>
       </c>
@@ -16797,7 +16799,7 @@
         <v>4519.598</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>42152</v>
       </c>
@@ -16844,7 +16846,7 @@
         <v>4515.8329999999996</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>42153</v>
       </c>
@@ -16891,7 +16893,7 @@
         <v>4518.5029999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>42156</v>
       </c>
@@ -16938,7 +16940,7 @@
         <v>4514.7169999999996</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>42157</v>
       </c>
@@ -16985,7 +16987,7 @@
         <v>4504.8599999999997</v>
       </c>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>42158</v>
       </c>
@@ -17032,7 +17034,7 @@
         <v>4485.7809999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>42159</v>
       </c>
@@ -17079,7 +17081,7 @@
         <v>4494.7719999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>42160</v>
       </c>
@@ -17126,7 +17128,7 @@
         <v>4476.2240000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>42163</v>
       </c>
@@ -17173,7 +17175,7 @@
         <v>4479.0780000000004</v>
       </c>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>42164</v>
       </c>
@@ -17220,7 +17222,7 @@
         <v>4475.4350000000004</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>42165</v>
       </c>
@@ -17267,7 +17269,7 @@
         <v>4473.1499999999996</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>42166</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>4479.6270000000004</v>
       </c>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>42167</v>
       </c>
@@ -17361,7 +17363,7 @@
         <v>4487.0630000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>42170</v>
       </c>
@@ -17408,7 +17410,7 @@
         <v>4487.3230000000003</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>42171</v>
       </c>
@@ -17455,7 +17457,7 @@
         <v>4488.0209999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>42172</v>
       </c>
@@ -17502,7 +17504,7 @@
         <v>4486.8220000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>42173</v>
       </c>
@@ -17549,7 +17551,7 @@
         <v>4487.0870000000004</v>
       </c>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>42174</v>
       </c>
@@ -17596,7 +17598,7 @@
         <v>4496.8950000000004</v>
       </c>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>42177</v>
       </c>
@@ -17643,7 +17645,7 @@
         <v>4490.3090000000002</v>
       </c>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>42178</v>
       </c>
@@ -17690,7 +17692,7 @@
         <v>4463.0810000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>42179</v>
       </c>
@@ -17737,7 +17739,7 @@
         <v>4465.6090000000004</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>42180</v>
       </c>
@@ -17784,7 +17786,7 @@
         <v>4456.7219999999998</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>42181</v>
       </c>
@@ -17831,7 +17833,7 @@
         <v>4448.1319999999996</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>42184</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>4451.2749999999996</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>42185</v>
       </c>
@@ -17925,7 +17927,7 @@
         <v>4446.9250000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>42186</v>
       </c>
@@ -17972,7 +17974,7 @@
         <v>4430.9340000000002</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>42187</v>
       </c>
@@ -18019,7 +18021,7 @@
         <v>4425.125</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>42191</v>
       </c>
@@ -18066,7 +18068,7 @@
         <v>4415.4110000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>42192</v>
       </c>
@@ -18113,7 +18115,7 @@
         <v>4414.1440000000002</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>42193</v>
       </c>
@@ -18160,7 +18162,7 @@
         <v>4408.3379999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>42194</v>
       </c>
@@ -18207,7 +18209,7 @@
         <v>4404.2190000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>42195</v>
       </c>
@@ -18254,7 +18256,7 @@
         <v>4401.3450000000003</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>42198</v>
       </c>
@@ -18301,7 +18303,7 @@
         <v>4411.3410000000003</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>42199</v>
       </c>
@@ -18348,7 +18350,7 @@
         <v>4426.2139999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>42200</v>
       </c>
@@ -18395,7 +18397,7 @@
         <v>4408.4530000000004</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>42201</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>4389.4399999999996</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>42202</v>
       </c>
@@ -18489,7 +18491,7 @@
         <v>4405.8159999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>42205</v>
       </c>
@@ -18536,7 +18538,7 @@
         <v>4405.5039999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>42206</v>
       </c>
@@ -18583,7 +18585,7 @@
         <v>4416.9170000000004</v>
       </c>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>42207</v>
       </c>
@@ -18630,7 +18632,7 @@
         <v>4428.4530000000004</v>
       </c>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>42208</v>
       </c>
@@ -18677,7 +18679,7 @@
         <v>4434.299</v>
       </c>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>42209</v>
       </c>
@@ -18724,7 +18726,7 @@
         <v>4424.8410000000003</v>
       </c>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>42212</v>
       </c>
@@ -18771,7 +18773,7 @@
         <v>4427.9399999999996</v>
       </c>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>42213</v>
       </c>
@@ -18818,7 +18820,7 @@
         <v>4428.973</v>
       </c>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>42214</v>
       </c>
@@ -18865,7 +18867,7 @@
         <v>4430.0069999999996</v>
       </c>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>42215</v>
       </c>
@@ -18912,7 +18914,7 @@
         <v>4413.3119999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>42216</v>
       </c>
@@ -18959,7 +18961,7 @@
         <v>4410.76</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>42219</v>
       </c>
@@ -19006,7 +19008,7 @@
         <v>4414.058</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>42220</v>
       </c>
@@ -19053,7 +19055,7 @@
         <v>4413.7709999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>42221</v>
       </c>
@@ -19100,7 +19102,7 @@
         <v>4411.9750000000004</v>
       </c>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>42222</v>
       </c>
@@ -19147,7 +19149,7 @@
         <v>4409.5349999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>42223</v>
       </c>
@@ -19194,7 +19196,7 @@
         <v>4281.3379999999997</v>
       </c>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>42226</v>
       </c>
@@ -19241,7 +19243,7 @@
         <v>4284.085</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>42227</v>
       </c>
@@ -19288,7 +19290,7 @@
         <v>4285.7389999999996</v>
       </c>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>42228</v>
       </c>
@@ -19335,7 +19337,7 @@
         <v>4290.3639999999996</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>42229</v>
       </c>
@@ -19382,7 +19384,7 @@
         <v>4279.0370000000003</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>42230</v>
       </c>
@@ -19429,7 +19431,7 @@
         <v>4266.1580000000004</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>42233</v>
       </c>
@@ -19476,7 +19478,7 @@
         <v>4258.7370000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>42234</v>
       </c>
@@ -19523,7 +19525,7 @@
         <v>4257.1009999999997</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>42235</v>
       </c>
@@ -19570,7 +19572,7 @@
         <v>4255.3450000000003</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>42236</v>
       </c>
@@ -19617,7 +19619,7 @@
         <v>4249.3090000000002</v>
       </c>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>42237</v>
       </c>
@@ -19664,7 +19666,7 @@
         <v>4238.2439999999997</v>
       </c>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>42240</v>
       </c>
@@ -19711,7 +19713,7 @@
         <v>4213.6570000000002</v>
       </c>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>42241</v>
       </c>
@@ -19758,7 +19760,7 @@
         <v>4213.6040000000003</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>42242</v>
       </c>
@@ -19805,7 +19807,7 @@
         <v>4174.3310000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>42243</v>
       </c>
@@ -19852,7 +19854,7 @@
         <v>4174.4279999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>42244</v>
       </c>
@@ -19899,7 +19901,7 @@
         <v>4170.6220000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>42247</v>
       </c>
@@ -19946,7 +19948,7 @@
         <v>4163.8289999999997</v>
       </c>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>42248</v>
       </c>
@@ -19993,7 +19995,7 @@
         <v>4137.777</v>
       </c>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>42249</v>
       </c>
@@ -20040,7 +20042,7 @@
         <v>4128.6400000000003</v>
       </c>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>42250</v>
       </c>
@@ -20087,7 +20089,7 @@
         <v>4062.2240000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>42251</v>
       </c>
@@ -20134,7 +20136,7 @@
         <v>4066.3490000000002</v>
       </c>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>42255</v>
       </c>
@@ -20181,7 +20183,7 @@
         <v>4066.6260000000002</v>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>42256</v>
       </c>
@@ -20228,7 +20230,7 @@
         <v>4064.9810000000002</v>
       </c>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>42257</v>
       </c>
@@ -20275,7 +20277,7 @@
         <v>4049.6950000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>42258</v>
       </c>
@@ -20322,7 +20324,7 @@
         <v>4029.9409999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>42261</v>
       </c>
@@ -20369,7 +20371,7 @@
         <v>4041.3739999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>42262</v>
       </c>
@@ -20416,7 +20418,7 @@
         <v>3995.8180000000002</v>
       </c>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>42263</v>
       </c>
@@ -20463,7 +20465,7 @@
         <v>4008.2370000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>42264</v>
       </c>
@@ -20510,7 +20512,7 @@
         <v>4017.2190000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>42265</v>
       </c>
@@ -20557,7 +20559,7 @@
         <v>4046.7739999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>42268</v>
       </c>
@@ -20604,7 +20606,7 @@
         <v>4050.7420000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>42269</v>
       </c>
@@ -20651,7 +20653,7 @@
         <v>4043.97</v>
       </c>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>42270</v>
       </c>
@@ -20698,7 +20700,7 @@
         <v>4031.2080000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>42271</v>
       </c>
@@ -20745,7 +20747,7 @@
         <v>4026.703</v>
       </c>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>42272</v>
       </c>
@@ -20792,7 +20794,7 @@
         <v>4025.4769999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
         <v>42275</v>
       </c>
@@ -20839,7 +20841,7 @@
         <v>4023.105</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>42276</v>
       </c>
@@ -20886,7 +20888,7 @@
         <v>4020.1469999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>42277</v>
       </c>
@@ -20933,7 +20935,7 @@
         <v>4046.018</v>
       </c>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>42278</v>
       </c>
@@ -20980,7 +20982,7 @@
         <v>4047.3629999999998</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>42279</v>
       </c>
@@ -21027,7 +21029,7 @@
         <v>4050.748</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>42282</v>
       </c>
@@ -21074,7 +21076,7 @@
         <v>4055.5720000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>42283</v>
       </c>
@@ -21121,7 +21123,7 @@
         <v>4064.9409999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>42284</v>
       </c>
@@ -21168,7 +21170,7 @@
         <v>4062.0819999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>42285</v>
       </c>
@@ -21215,7 +21217,7 @@
         <v>4063.1570000000002</v>
       </c>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>42286</v>
       </c>
@@ -21262,7 +21264,7 @@
         <v>4064.2339999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>42289</v>
       </c>
@@ -21309,7 +21311,7 @@
         <v>4067.252</v>
       </c>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>42290</v>
       </c>
@@ -21356,7 +21358,7 @@
         <v>4070.6219999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>42291</v>
       </c>
@@ -21403,7 +21405,7 @@
         <v>4080.1019999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>42292</v>
       </c>
@@ -21450,7 +21452,7 @@
         <v>4095.2809999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>42293</v>
       </c>
@@ -21497,7 +21499,7 @@
         <v>4111.1809999999996</v>
       </c>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>42296</v>
       </c>
@@ -21544,7 +21546,7 @@
         <v>4122.3609999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>42297</v>
       </c>
@@ -21591,7 +21593,7 @@
         <v>4132.7420000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>42298</v>
       </c>
@@ -21638,7 +21640,7 @@
         <v>4148.3999999999996</v>
       </c>
     </row>
-    <row r="452" spans="1:15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>42299</v>
       </c>
@@ -21685,7 +21687,7 @@
         <v>4162.6109999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>42300</v>
       </c>
@@ -21732,7 +21734,7 @@
         <v>4181.7870000000003</v>
       </c>
     </row>
-    <row r="454" spans="1:15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>42303</v>
       </c>
@@ -21779,7 +21781,7 @@
         <v>4175.835</v>
       </c>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>42304</v>
       </c>
@@ -21826,7 +21828,7 @@
         <v>4201.0720000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>42305</v>
       </c>
@@ -21873,7 +21875,7 @@
         <v>4194.7020000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>42306</v>
       </c>
@@ -21920,7 +21922,7 @@
         <v>4182.29</v>
       </c>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>42307</v>
       </c>
@@ -21967,7 +21969,7 @@
         <v>4193.5379999999996</v>
       </c>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>42310</v>
       </c>
@@ -22014,7 +22016,7 @@
         <v>4194.8230000000003</v>
       </c>
     </row>
-    <row r="460" spans="1:15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>42311</v>
       </c>
@@ -22061,7 +22063,7 @@
         <v>4191.1000000000004</v>
       </c>
     </row>
-    <row r="461" spans="1:15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>42312</v>
       </c>
@@ -22108,7 +22110,7 @@
         <v>4176.393</v>
       </c>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>42313</v>
       </c>
@@ -22155,7 +22157,7 @@
         <v>4165.8159999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>42314</v>
       </c>
@@ -22202,7 +22204,7 @@
         <v>4168.0200000000004</v>
       </c>
     </row>
-    <row r="464" spans="1:15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>42317</v>
       </c>
@@ -22249,7 +22251,7 @@
         <v>4164.335</v>
       </c>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>42318</v>
       </c>
@@ -22296,7 +22298,7 @@
         <v>4182.5739999999996</v>
       </c>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>42319</v>
       </c>
@@ -22343,7 +22345,7 @@
         <v>4191.5940000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>42320</v>
       </c>
@@ -22390,7 +22392,7 @@
         <v>4197.9350000000004</v>
       </c>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>42321</v>
       </c>
@@ -22437,7 +22439,7 @@
         <v>4205.9960000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>42324</v>
       </c>
@@ -22484,7 +22486,7 @@
         <v>4213.5209999999997</v>
       </c>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>42325</v>
       </c>
@@ -22531,7 +22533,7 @@
         <v>4204.3580000000002</v>
       </c>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>42326</v>
       </c>
@@ -22578,7 +22580,7 @@
         <v>4211.5460000000003</v>
       </c>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>42327</v>
       </c>
@@ -22625,7 +22627,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>42328</v>
       </c>
@@ -22672,7 +22674,7 @@
         <v>4247.7870000000003</v>
       </c>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>42331</v>
       </c>
@@ -22719,7 +22721,7 @@
         <v>4237.4709999999995</v>
       </c>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>42332</v>
       </c>
@@ -22766,7 +22768,7 @@
         <v>4249.6109999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>42333</v>
       </c>
@@ -22813,7 +22815,7 @@
         <v>4254.3490000000002</v>
       </c>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>42335</v>
       </c>
@@ -22860,7 +22862,7 @@
         <v>4241.1809999999996</v>
       </c>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>42338</v>
       </c>
@@ -22907,7 +22909,7 @@
         <v>4247.2439999999997</v>
       </c>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>42339</v>
       </c>
@@ -22954,7 +22956,7 @@
         <v>4232.8959999999997</v>
       </c>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>42340</v>
       </c>
@@ -23001,7 +23003,7 @@
         <v>4223.8919999999998</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>42341</v>
       </c>
@@ -23048,7 +23050,7 @@
         <v>4226.7860000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>42342</v>
       </c>
@@ -23095,7 +23097,7 @@
         <v>4227.5439999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>42345</v>
       </c>
@@ -23142,7 +23144,7 @@
         <v>4231.8100000000004</v>
       </c>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>42346</v>
       </c>
@@ -23189,7 +23191,7 @@
         <v>4232.8720000000003</v>
       </c>
     </row>
-    <row r="485" spans="1:15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>42347</v>
       </c>
@@ -23236,7 +23238,7 @@
         <v>4223.674</v>
       </c>
     </row>
-    <row r="486" spans="1:15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>42348</v>
       </c>
@@ -23283,7 +23285,7 @@
         <v>4216.152</v>
       </c>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="3">
         <v>42349</v>
       </c>
@@ -23330,7 +23332,7 @@
         <v>4204.0320000000002</v>
       </c>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="3">
         <v>42352</v>
       </c>
@@ -23377,7 +23379,7 @@
         <v>4187.6779999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>42353</v>
       </c>
@@ -23424,7 +23426,7 @@
         <v>4191.7020000000002</v>
       </c>
     </row>
-    <row r="490" spans="1:15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>42354</v>
       </c>
@@ -23471,7 +23473,7 @@
         <v>4201.8580000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>42355</v>
       </c>
@@ -23518,7 +23520,7 @@
         <v>4206.7889999999998</v>
       </c>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>42356</v>
       </c>
@@ -23565,7 +23567,7 @@
         <v>4212.8450000000003</v>
       </c>
     </row>
-    <row r="493" spans="1:15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>42359</v>
       </c>
@@ -23612,7 +23614,7 @@
         <v>4214.9610000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>42360</v>
       </c>
@@ -23659,7 +23661,7 @@
         <v>4212.1400000000003</v>
       </c>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>42361</v>
       </c>
@@ -23706,7 +23708,7 @@
         <v>4200.3639999999996</v>
       </c>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="3">
         <v>42362</v>
       </c>
@@ -23753,7 +23755,7 @@
         <v>4192.2219999999998</v>
       </c>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
         <v>42366</v>
       </c>
@@ -23800,7 +23802,7 @@
         <v>4192.4570000000003</v>
       </c>
     </row>
-    <row r="498" spans="1:15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>42367</v>
       </c>
@@ -23847,7 +23849,7 @@
         <v>4190.0709999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
         <v>42368</v>
       </c>
@@ -23894,7 +23896,7 @@
         <v>4152.9229999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>42369</v>
       </c>
@@ -23941,7 +23943,7 @@
         <v>4154.2690000000002</v>
       </c>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>42373</v>
       </c>
@@ -23988,7 +23990,7 @@
         <v>4153.6880000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>42374</v>
       </c>
@@ -24035,7 +24037,7 @@
         <v>4174.348</v>
       </c>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>42375</v>
       </c>
@@ -24082,7 +24084,7 @@
         <v>4178.4219999999996</v>
       </c>
     </row>
-    <row r="504" spans="1:15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>42376</v>
       </c>
@@ -24129,7 +24131,7 @@
         <v>4175.9740000000002</v>
       </c>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>42377</v>
       </c>
@@ -24176,7 +24178,7 @@
         <v>4161.0749999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="3">
         <v>42380</v>
       </c>
@@ -24223,7 +24225,7 @@
         <v>4163.3950000000004</v>
       </c>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="3">
         <v>42381</v>
       </c>
@@ -24270,7 +24272,7 @@
         <v>4153.5640000000003</v>
       </c>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="3">
         <v>42382</v>
       </c>
@@ -24317,7 +24319,7 @@
         <v>4158.951</v>
       </c>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>42383</v>
       </c>
@@ -24364,7 +24366,7 @@
         <v>4166.2089999999998</v>
       </c>
     </row>
-    <row r="510" spans="1:15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>42384</v>
       </c>
@@ -24411,7 +24413,7 @@
         <v>4151.5219999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>42388</v>
       </c>
@@ -24458,7 +24460,7 @@
         <v>4151.2669999999998</v>
       </c>
     </row>
-    <row r="512" spans="1:15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="3">
         <v>42389</v>
       </c>
@@ -24505,7 +24507,7 @@
         <v>4146.3040000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="3">
         <v>42390</v>
       </c>
@@ -24552,7 +24554,7 @@
         <v>4140.2160000000003</v>
       </c>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>42391</v>
       </c>
@@ -24599,7 +24601,7 @@
         <v>4154.3680000000004</v>
       </c>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>42394</v>
       </c>
@@ -24646,7 +24648,7 @@
         <v>4146.3850000000002</v>
       </c>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="3">
         <v>42395</v>
       </c>
@@ -24693,7 +24695,7 @@
         <v>4138.7619999999997</v>
       </c>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>42396</v>
       </c>
@@ -24740,7 +24742,7 @@
         <v>4133.8440000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="3">
         <v>42397</v>
       </c>
@@ -24787,7 +24789,7 @@
         <v>4135.384</v>
       </c>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="3">
         <v>42398</v>
       </c>
@@ -24834,7 +24836,7 @@
         <v>4127.2610000000004</v>
       </c>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="3">
         <v>42401</v>
       </c>
@@ -24881,7 +24883,7 @@
         <v>4133.1970000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="3">
         <v>42402</v>
       </c>
@@ -24928,7 +24930,7 @@
         <v>4135.9589999999998</v>
       </c>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="3">
         <v>42403</v>
       </c>
@@ -24975,7 +24977,7 @@
         <v>4144.9409999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="3">
         <v>42404</v>
       </c>
@@ -25022,7 +25024,7 @@
         <v>4160.5690000000004</v>
       </c>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="3">
         <v>42405</v>
       </c>
@@ -25069,7 +25071,7 @@
         <v>4166.8720000000003</v>
       </c>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="3">
         <v>42408</v>
       </c>
@@ -25116,7 +25118,7 @@
         <v>4038.6480000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="3">
         <v>42409</v>
       </c>
@@ -25163,7 +25165,7 @@
         <v>4031.7080000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="3">
         <v>42410</v>
       </c>
@@ -25210,7 +25212,7 @@
         <v>4029.8539999999998</v>
       </c>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="3">
         <v>42411</v>
       </c>
@@ -25257,7 +25259,7 @@
         <v>4023.337</v>
       </c>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="3">
         <v>42412</v>
       </c>
@@ -25304,7 +25306,7 @@
         <v>4034.297</v>
       </c>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="3">
         <v>42415</v>
       </c>
@@ -25351,7 +25353,7 @@
         <v>4051.7959999999998</v>
       </c>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="3">
         <v>42416</v>
       </c>
@@ -25398,7 +25400,7 @@
         <v>4053.7570000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="3">
         <v>42418</v>
       </c>
@@ -25445,7 +25447,7 @@
         <v>4058.0680000000002</v>
       </c>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="3">
         <v>42419</v>
       </c>
@@ -25492,7 +25494,7 @@
         <v>4054.5889999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="3">
         <v>42422</v>
       </c>
@@ -25539,7 +25541,7 @@
         <v>4057.913</v>
       </c>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="3">
         <v>42423</v>
       </c>
@@ -25586,7 +25588,7 @@
         <v>4062.2739999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="3">
         <v>42424</v>
       </c>
@@ -25633,7 +25635,7 @@
         <v>4062.2710000000002</v>
       </c>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="3">
         <v>42425</v>
       </c>
@@ -25680,7 +25682,7 @@
         <v>4069.4050000000002</v>
       </c>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="3">
         <v>42426</v>
       </c>
@@ -25727,7 +25729,7 @@
         <v>4085.9110000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="3">
         <v>42429</v>
       </c>
@@ -25774,7 +25776,7 @@
         <v>4083.0149999999999</v>
       </c>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="3">
         <v>42430</v>
       </c>
@@ -25821,7 +25823,7 @@
         <v>4083.8449999999998</v>
       </c>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="3">
         <v>42431</v>
       </c>
@@ -25868,7 +25870,7 @@
         <v>4092.4740000000002</v>
       </c>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="3">
         <v>42432</v>
       </c>
@@ -25915,7 +25917,7 @@
         <v>4102.317</v>
       </c>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="3">
         <v>42433</v>
       </c>
@@ -25962,7 +25964,7 @@
         <v>4125.875</v>
       </c>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="3">
         <v>42436</v>
       </c>
@@ -26009,7 +26011,7 @@
         <v>4132.3829999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="3">
         <v>42437</v>
       </c>
@@ -26056,7 +26058,7 @@
         <v>4131.8590000000004</v>
       </c>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="3">
         <v>42438</v>
       </c>
@@ -26103,7 +26105,7 @@
         <v>4142.8509999999997</v>
       </c>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="3">
         <v>42439</v>
       </c>
@@ -26150,7 +26152,7 @@
         <v>4145.4009999999998</v>
       </c>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="3">
         <v>42440</v>
       </c>
@@ -26197,7 +26199,7 @@
         <v>4174.6170000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="3">
         <v>42443</v>
       </c>
@@ -26244,7 +26246,7 @@
         <v>4178.5820000000003</v>
       </c>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="3">
         <v>42444</v>
       </c>
@@ -26291,7 +26293,7 @@
         <v>4172.0039999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="3">
         <v>42445</v>
       </c>
@@ -26338,7 +26340,7 @@
         <v>4170.8310000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="3">
         <v>42446</v>
       </c>
@@ -26385,7 +26387,7 @@
         <v>4312.1549999999997</v>
       </c>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="3">
         <v>42447</v>
       </c>
@@ -26432,7 +26434,7 @@
         <v>4315.7449999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="3">
         <v>42450</v>
       </c>
@@ -26479,7 +26481,7 @@
         <v>4299.4970000000003</v>
       </c>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="3">
         <v>42451</v>
       </c>
@@ -26526,7 +26528,7 @@
         <v>4290.7659999999996</v>
       </c>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="3">
         <v>42452</v>
       </c>
@@ -26573,7 +26575,7 @@
         <v>4288.3440000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="3">
         <v>42453</v>
       </c>
@@ -26620,7 +26622,7 @@
         <v>4288.9589999999998</v>
       </c>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="3">
         <v>42457</v>
       </c>
@@ -26667,7 +26669,7 @@
         <v>4303.4459999999999</v>
       </c>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="3">
         <v>42458</v>
       </c>
@@ -26714,7 +26716,7 @@
         <v>4308.7330000000002</v>
       </c>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="3">
         <v>42459</v>
       </c>
@@ -26761,7 +26763,7 @@
         <v>4327.1710000000003</v>
       </c>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="3">
         <v>42460</v>
       </c>
@@ -26808,7 +26810,7 @@
         <v>4342.6369999999997</v>
       </c>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="3">
         <v>42461</v>
       </c>
@@ -26855,7 +26857,7 @@
         <v>4335.3959999999997</v>
       </c>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="3">
         <v>42464</v>
       </c>
@@ -26902,7 +26904,7 @@
         <v>4323.9750000000004</v>
       </c>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="3">
         <v>42465</v>
       </c>
@@ -26949,7 +26951,7 @@
         <v>4320.8940000000002</v>
       </c>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="3">
         <v>42466</v>
       </c>
@@ -26996,7 +26998,7 @@
         <v>4324.8519999999999</v>
       </c>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="3">
         <v>42467</v>
       </c>
@@ -27043,7 +27045,7 @@
         <v>4308.2349999999997</v>
       </c>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="3">
         <v>42468</v>
       </c>
@@ -27090,7 +27092,7 @@
         <v>4314.5280000000002</v>
       </c>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="3">
         <v>42471</v>
       </c>
@@ -27137,7 +27139,7 @@
         <v>4380.7060000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="3">
         <v>42472</v>
       </c>
@@ -27184,7 +27186,7 @@
         <v>4413.95</v>
       </c>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="3">
         <v>42473</v>
       </c>
@@ -27231,7 +27233,7 @@
         <v>4442.0240000000003</v>
       </c>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="3">
         <v>42474</v>
       </c>
@@ -27278,7 +27280,7 @@
         <v>4450.9120000000003</v>
       </c>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="3">
         <v>42475</v>
       </c>
@@ -27325,7 +27327,7 @@
         <v>4434.9030000000002</v>
       </c>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="3">
         <v>42478</v>
       </c>
@@ -27372,7 +27374,7 @@
         <v>4443.8590000000004</v>
       </c>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="3">
         <v>42479</v>
       </c>
@@ -27419,7 +27421,7 @@
         <v>4478.6689999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="3">
         <v>42480</v>
       </c>
@@ -27466,7 +27468,7 @@
         <v>4485.3249999999998</v>
       </c>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="3">
         <v>42481</v>
       </c>
@@ -27513,7 +27515,7 @@
         <v>4471.2839999999997</v>
       </c>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="3">
         <v>42482</v>
       </c>
@@ -27560,7 +27562,7 @@
         <v>4452.3519999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="3">
         <v>42485</v>
       </c>
@@ -27607,7 +27609,7 @@
         <v>4462.826</v>
       </c>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="3">
         <v>42486</v>
       </c>
@@ -27654,7 +27656,7 @@
         <v>4458.6220000000003</v>
       </c>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="3">
         <v>42487</v>
       </c>
@@ -27701,7 +27703,7 @@
         <v>4470.7690000000002</v>
       </c>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="3">
         <v>42488</v>
       </c>
@@ -27748,7 +27750,7 @@
         <v>4497.0339999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="3">
         <v>42489</v>
       </c>
@@ -27795,7 +27797,7 @@
         <v>4489.9780000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="3">
         <v>42492</v>
       </c>
@@ -27842,7 +27844,7 @@
         <v>4500.9560000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="3">
         <v>42493</v>
       </c>
@@ -27889,7 +27891,7 @@
         <v>4500.9719999999998</v>
       </c>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="3">
         <v>42494</v>
       </c>
@@ -27936,7 +27938,7 @@
         <v>4487.866</v>
       </c>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="3">
         <v>42495</v>
       </c>
@@ -27983,7 +27985,7 @@
         <v>4485.4629999999997</v>
       </c>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="3">
         <v>42496</v>
       </c>
@@ -28030,7 +28032,7 @@
         <v>4488.7529999999997</v>
       </c>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="3">
         <v>42499</v>
       </c>
@@ -28077,7 +28079,7 @@
         <v>4491.8980000000001</v>
       </c>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="3">
         <v>42500</v>
       </c>
@@ -28124,7 +28126,7 @@
         <v>4497.8090000000002</v>
       </c>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="3">
         <v>42501</v>
       </c>
@@ -28171,7 +28173,7 @@
         <v>4508.41</v>
       </c>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="3">
         <v>42502</v>
       </c>
@@ -28218,7 +28220,7 @@
         <v>4508.9399999999996</v>
       </c>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="3">
         <v>42503</v>
       </c>
@@ -28265,7 +28267,7 @@
         <v>4520.21</v>
       </c>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="3">
         <v>42506</v>
       </c>
@@ -28312,7 +28314,7 @@
         <v>4528.893</v>
       </c>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="3">
         <v>42507</v>
       </c>
@@ -28359,7 +28361,7 @@
         <v>4541.5510000000004</v>
       </c>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="3">
         <v>42508</v>
       </c>
@@ -28406,7 +28408,7 @@
         <v>4539.7889999999998</v>
       </c>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="3">
         <v>42509</v>
       </c>
@@ -28453,7 +28455,7 @@
         <v>4509.5200000000004</v>
       </c>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="3">
         <v>42510</v>
       </c>
@@ -28500,7 +28502,7 @@
         <v>4517.1279999999997</v>
       </c>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="3">
         <v>42513</v>
       </c>
@@ -28547,7 +28549,7 @@
         <v>4511.8500000000004</v>
       </c>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="3">
         <v>42514</v>
       </c>
@@ -28594,7 +28596,7 @@
         <v>4516.5190000000002</v>
       </c>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="3">
         <v>42515</v>
       </c>
@@ -28641,7 +28643,7 @@
         <v>4514.7629999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="3">
         <v>42516</v>
       </c>
@@ -28688,7 +28690,7 @@
         <v>4506.7640000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="3">
         <v>42517</v>
       </c>
@@ -28735,7 +28737,7 @@
         <v>4525.3450000000003</v>
       </c>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="3">
         <v>42521</v>
       </c>
@@ -28782,7 +28784,7 @@
         <v>4532.8609999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="3">
         <v>42522</v>
       </c>
@@ -28829,7 +28831,7 @@
         <v>4527.9269999999997</v>
       </c>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
         <v>42523</v>
       </c>
@@ -28876,7 +28878,7 @@
         <v>4548.4629999999997</v>
       </c>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="3">
         <v>42524</v>
       </c>
@@ -28923,7 +28925,7 @@
         <v>4570.4759999999997</v>
       </c>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="3">
         <v>42527</v>
       </c>
@@ -28970,7 +28972,7 @@
         <v>4586.348</v>
       </c>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="3">
         <v>42528</v>
       </c>
@@ -29017,7 +29019,7 @@
         <v>4587.0450000000001</v>
       </c>
     </row>
-    <row r="609" spans="1:15">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="3">
         <v>42529</v>
       </c>
@@ -29064,7 +29066,7 @@
         <v>4588.4970000000003</v>
       </c>
     </row>
-    <row r="610" spans="1:15">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="3">
         <v>42530</v>
       </c>
@@ -29111,7 +29113,7 @@
         <v>4599.125</v>
       </c>
     </row>
-    <row r="611" spans="1:15">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="3">
         <v>42531</v>
       </c>
@@ -29158,7 +29160,7 @@
         <v>4593.5990000000002</v>
       </c>
     </row>
-    <row r="612" spans="1:15">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="3">
         <v>42534</v>
       </c>
@@ -29205,7 +29207,7 @@
         <v>4600.0219999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:15">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="3">
         <v>42535</v>
       </c>
@@ -29252,7 +29254,7 @@
         <v>4591.8639999999996</v>
       </c>
     </row>
-    <row r="614" spans="1:15">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="3">
         <v>42536</v>
       </c>
@@ -29299,7 +29301,7 @@
         <v>4579.7420000000002</v>
       </c>
     </row>
-    <row r="615" spans="1:15">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="3">
         <v>42537</v>
       </c>
@@ -29346,7 +29348,7 @@
         <v>4570.3419999999996</v>
       </c>
     </row>
-    <row r="616" spans="1:15">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="3">
         <v>42538</v>
       </c>
@@ -29393,7 +29395,7 @@
         <v>4578.518</v>
       </c>
     </row>
-    <row r="617" spans="1:15">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="3">
         <v>42541</v>
       </c>
@@ -29440,7 +29442,7 @@
         <v>4586.3440000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:15">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="3">
         <v>42542</v>
       </c>
@@ -29487,7 +29489,7 @@
         <v>4590.3710000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:15">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="3">
         <v>42543</v>
       </c>
@@ -29534,7 +29536,7 @@
         <v>4583.2520000000004</v>
       </c>
     </row>
-    <row r="620" spans="1:15">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="3">
         <v>42544</v>
       </c>
@@ -29581,7 +29583,7 @@
         <v>4595.3459999999995</v>
       </c>
     </row>
-    <row r="621" spans="1:15">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="3">
         <v>42545</v>
       </c>
@@ -29628,7 +29630,7 @@
         <v>4609.4369999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:15">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="3">
         <v>42548</v>
       </c>
@@ -29675,7 +29677,7 @@
         <v>4614.3419999999996</v>
       </c>
     </row>
-    <row r="623" spans="1:15">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="3">
         <v>42549</v>
       </c>
@@ -29722,7 +29724,7 @@
         <v>4618.799</v>
       </c>
     </row>
-    <row r="624" spans="1:15">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="3">
         <v>42550</v>
       </c>
@@ -29769,7 +29771,7 @@
         <v>4620.8100000000004</v>
       </c>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="3">
         <v>42551</v>
       </c>
@@ -29816,7 +29818,7 @@
         <v>4631.5720000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="3">
         <v>42552</v>
       </c>
@@ -29863,7 +29865,7 @@
         <v>4655.2449999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="3">
         <v>42556</v>
       </c>
@@ -29910,7 +29912,7 @@
         <v>4669.4009999999998</v>
       </c>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="3">
         <v>42557</v>
       </c>
@@ -29957,7 +29959,7 @@
         <v>4707.8459999999995</v>
       </c>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="3">
         <v>42558</v>
       </c>
@@ -30004,7 +30006,7 @@
         <v>4710.1099999999997</v>
       </c>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="3">
         <v>42559</v>
       </c>
@@ -30051,7 +30053,7 @@
         <v>4709.1930000000002</v>
       </c>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="3">
         <v>42562</v>
       </c>
@@ -30098,7 +30100,7 @@
         <v>4721.1019999999999</v>
       </c>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="3">
         <v>42563</v>
       </c>
@@ -30145,7 +30147,7 @@
         <v>4728.2370000000001</v>
       </c>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="3">
         <v>42564</v>
       </c>
@@ -30192,7 +30194,7 @@
         <v>4730.866</v>
       </c>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="3">
         <v>42565</v>
       </c>
@@ -30239,7 +30241,7 @@
         <v>4727.4570000000003</v>
       </c>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="3">
         <v>42566</v>
       </c>
@@ -30286,7 +30288,7 @@
         <v>4724.6890000000003</v>
       </c>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="3">
         <v>42569</v>
       </c>
@@ -30333,7 +30335,7 @@
         <v>4725.5469999999996</v>
       </c>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="3">
         <v>42570</v>
       </c>
@@ -30380,7 +30382,7 @@
         <v>4735.0439999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="3">
         <v>42571</v>
       </c>
@@ -30427,7 +30429,7 @@
         <v>4729.4930000000004</v>
       </c>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="3">
         <v>42572</v>
       </c>
@@ -30474,7 +30476,7 @@
         <v>4731.5119999999997</v>
       </c>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="3">
         <v>42573</v>
       </c>
@@ -30521,7 +30523,7 @@
         <v>4732.5820000000003</v>
       </c>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="3">
         <v>42576</v>
       </c>
@@ -30568,7 +30570,7 @@
         <v>4735.2060000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="3">
         <v>42577</v>
       </c>
@@ -30615,7 +30617,7 @@
         <v>4730.3019999999997</v>
       </c>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="3">
         <v>42578</v>
       </c>
@@ -30662,7 +30664,7 @@
         <v>4736.7979999999998</v>
       </c>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="3">
         <v>42579</v>
       </c>
@@ -30709,7 +30711,7 @@
         <v>4737.7870000000003</v>
       </c>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="3">
         <v>42580</v>
       </c>
@@ -30756,7 +30758,7 @@
         <v>4738.6930000000002</v>
       </c>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="3">
         <v>42583</v>
       </c>
@@ -30803,7 +30805,7 @@
         <v>4745.2969999999996</v>
       </c>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="3">
         <v>42584</v>
       </c>
@@ -30850,7 +30852,7 @@
         <v>4753.3639999999996</v>
       </c>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="3">
         <v>42585</v>
       </c>
@@ -30897,7 +30899,7 @@
         <v>4753.482</v>
       </c>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="3">
         <v>42586</v>
       </c>
@@ -30944,7 +30946,7 @@
         <v>4760.01</v>
       </c>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" s="3">
         <v>42587</v>
       </c>
@@ -30991,7 +30993,7 @@
         <v>4762.4920000000002</v>
       </c>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" s="3">
         <v>42590</v>
       </c>
@@ -31038,7 +31040,7 @@
         <v>4631.8360000000002</v>
       </c>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" s="3">
         <v>42591</v>
       </c>
@@ -31085,7 +31087,7 @@
         <v>4643.7190000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" s="3">
         <v>42592</v>
       </c>
@@ -31132,7 +31134,7 @@
         <v>4649.9830000000002</v>
       </c>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A654" s="3">
         <v>42593</v>
       </c>
@@ -31179,7 +31181,7 @@
         <v>4659.88</v>
       </c>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A655" s="3">
         <v>42594</v>
       </c>
@@ -31226,7 +31228,7 @@
         <v>4659.8919999999998</v>
       </c>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A656" s="3">
         <v>42597</v>
       </c>
@@ -31273,7 +31275,7 @@
         <v>4668.384</v>
       </c>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A657" s="3">
         <v>42598</v>
       </c>
@@ -31320,7 +31322,7 @@
         <v>4683.5219999999999</v>
       </c>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" s="3">
         <v>42599</v>
       </c>
@@ -31367,7 +31369,7 @@
         <v>4668.0010000000002</v>
       </c>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A659" s="3">
         <v>42600</v>
       </c>
@@ -31414,7 +31416,7 @@
         <v>4670.1779999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A660" s="3">
         <v>42601</v>
       </c>
@@ -31461,7 +31463,7 @@
         <v>4682.6899999999996</v>
       </c>
     </row>
-    <row r="661" spans="1:15">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A661" s="3">
         <v>42604</v>
       </c>
@@ -31508,7 +31510,7 @@
         <v>4670.6779999999999</v>
       </c>
     </row>
-    <row r="662" spans="1:15">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A662" s="3">
         <v>42605</v>
       </c>
@@ -31555,7 +31557,7 @@
         <v>4667.098</v>
       </c>
     </row>
-    <row r="663" spans="1:15">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A663" s="3">
         <v>42606</v>
       </c>
@@ -31602,7 +31604,7 @@
         <v>4673.3530000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:15">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A664" s="3">
         <v>42607</v>
       </c>
@@ -31649,7 +31651,7 @@
         <v>4667.1049999999996</v>
       </c>
     </row>
-    <row r="665" spans="1:15">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A665" s="3">
         <v>42608</v>
       </c>
@@ -31696,7 +31698,7 @@
         <v>4664.2359999999999</v>
       </c>
     </row>
-    <row r="666" spans="1:15">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A666" s="3">
         <v>42611</v>
       </c>
@@ -31743,7 +31745,7 @@
         <v>4657.9170000000004</v>
       </c>
     </row>
-    <row r="667" spans="1:15">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A667" s="3">
         <v>42612</v>
       </c>
@@ -31790,7 +31792,7 @@
         <v>4658.826</v>
       </c>
     </row>
-    <row r="668" spans="1:15">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A668" s="3">
         <v>42613</v>
       </c>
@@ -31837,7 +31839,7 @@
         <v>4650.4859999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:15">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A669" s="3">
         <v>42614</v>
       </c>
@@ -31884,7 +31886,7 @@
         <v>4649.2950000000001</v>
       </c>
     </row>
-    <row r="670" spans="1:15">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A670" s="3">
         <v>42615</v>
       </c>
@@ -31931,7 +31933,7 @@
         <v>4645.8419999999996</v>
       </c>
     </row>
-    <row r="671" spans="1:15">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A671" s="3">
         <v>42619</v>
       </c>
@@ -31978,7 +31980,7 @@
         <v>4628.1639999999998</v>
       </c>
     </row>
-    <row r="672" spans="1:15">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A672" s="3">
         <v>42620</v>
       </c>
@@ -32025,7 +32027,7 @@
         <v>4631.6790000000001</v>
       </c>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A673" s="3">
         <v>42621</v>
       </c>
@@ -32072,7 +32074,7 @@
         <v>4641.6040000000003</v>
       </c>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A674" s="3">
         <v>42622</v>
       </c>
@@ -32119,7 +32121,7 @@
         <v>4630.3819999999996</v>
       </c>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A675" s="3">
         <v>42625</v>
       </c>
@@ -32166,7 +32168,7 @@
         <v>4637.82</v>
       </c>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A676" s="3">
         <v>42626</v>
       </c>
@@ -32213,7 +32215,7 @@
         <v>4634.43</v>
       </c>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A677" s="3">
         <v>42627</v>
       </c>
@@ -32260,7 +32262,7 @@
         <v>4633.0280000000002</v>
       </c>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A678" s="3">
         <v>42628</v>
       </c>
@@ -32307,7 +32309,7 @@
         <v>4626.0739999999996</v>
       </c>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A679" s="3">
         <v>42629</v>
       </c>
@@ -32354,7 +32356,7 @@
         <v>4623.0550000000003</v>
       </c>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A680" s="3">
         <v>42632</v>
       </c>
@@ -32401,7 +32403,7 @@
         <v>4625.241</v>
       </c>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A681" s="3">
         <v>42633</v>
       </c>
@@ -32448,7 +32450,7 @@
         <v>4637.0680000000002</v>
       </c>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A682" s="3">
         <v>42634</v>
       </c>
@@ -32495,7 +32497,7 @@
         <v>4642.375</v>
       </c>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A683" s="3">
         <v>42635</v>
       </c>
@@ -32542,7 +32544,7 @@
         <v>4652.1319999999996</v>
       </c>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A684" s="3">
         <v>42636</v>
       </c>
@@ -32589,7 +32591,7 @@
         <v>4651.8639999999996</v>
       </c>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A685" s="3">
         <v>42639</v>
       </c>
@@ -32636,7 +32638,7 @@
         <v>4651.5230000000001</v>
       </c>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A686" s="3">
         <v>42640</v>
       </c>
@@ -32683,7 +32685,7 @@
         <v>4650.4189999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A687" s="3">
         <v>42641</v>
       </c>
@@ -32730,7 +32732,7 @@
         <v>4679.7560000000003</v>
       </c>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A688" s="3">
         <v>42642</v>
       </c>
@@ -32777,7 +32779,7 @@
         <v>4695.6469999999999</v>
       </c>
     </row>
-    <row r="689" spans="1:15">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A689" s="3">
         <v>42643</v>
       </c>
@@ -32824,7 +32826,7 @@
         <v>4696.6189999999997</v>
       </c>
     </row>
-    <row r="690" spans="1:15">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A690" s="3">
         <v>42646</v>
       </c>
@@ -32871,7 +32873,7 @@
         <v>4693.5810000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:15">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A691" s="3">
         <v>42647</v>
       </c>
@@ -32918,7 +32920,7 @@
         <v>4694.2960000000003</v>
       </c>
     </row>
-    <row r="692" spans="1:15">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A692" s="3">
         <v>42648</v>
       </c>
@@ -32965,7 +32967,7 @@
         <v>4693.4340000000002</v>
       </c>
     </row>
-    <row r="693" spans="1:15">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A693" s="3">
         <v>42649</v>
       </c>
@@ -33012,7 +33014,7 @@
         <v>4693.1149999999998</v>
       </c>
     </row>
-    <row r="694" spans="1:15">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A694" s="3">
         <v>42650</v>
       </c>
@@ -33059,7 +33061,7 @@
         <v>4699.3389999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:15">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A695" s="3">
         <v>42653</v>
       </c>
@@ -33106,7 +33108,7 @@
         <v>4691.5119999999997</v>
       </c>
     </row>
-    <row r="696" spans="1:15">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A696" s="3">
         <v>42654</v>
       </c>
@@ -33153,7 +33155,7 @@
         <v>4690.1409999999996</v>
       </c>
     </row>
-    <row r="697" spans="1:15">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A697" s="3">
         <v>42655</v>
       </c>
@@ -33200,7 +33202,7 @@
         <v>4778.1409999999996</v>
       </c>
     </row>
-    <row r="698" spans="1:15">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A698" s="3">
         <v>42656</v>
       </c>
@@ -33247,7 +33249,7 @@
         <v>4776.116</v>
       </c>
     </row>
-    <row r="699" spans="1:15">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A699" s="3">
         <v>42657</v>
       </c>
@@ -33294,7 +33296,7 @@
         <v>4782.8249999999998</v>
       </c>
     </row>
-    <row r="700" spans="1:15">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A700" s="3">
         <v>42660</v>
       </c>
@@ -33341,7 +33343,7 @@
         <v>4783.7290000000003</v>
       </c>
     </row>
-    <row r="701" spans="1:15">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A701" s="3">
         <v>42661</v>
       </c>
@@ -33388,7 +33390,7 @@
         <v>4787.7079999999996</v>
       </c>
     </row>
-    <row r="702" spans="1:15">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A702" s="3">
         <v>42662</v>
       </c>
@@ -33435,7 +33437,7 @@
         <v>4782.6629999999996</v>
       </c>
     </row>
-    <row r="703" spans="1:15">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A703" s="3">
         <v>42663</v>
       </c>
@@ -33482,7 +33484,7 @@
         <v>4786.6909999999998</v>
       </c>
     </row>
-    <row r="704" spans="1:15">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A704" s="3">
         <v>42664</v>
       </c>
@@ -33529,7 +33531,7 @@
         <v>4791.4560000000001</v>
       </c>
     </row>
-    <row r="705" spans="1:15">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A705" s="3">
         <v>42667</v>
       </c>
@@ -33576,7 +33578,7 @@
         <v>4791.3379999999997</v>
       </c>
     </row>
-    <row r="706" spans="1:15">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A706" s="3">
         <v>42668</v>
       </c>
@@ -33623,7 +33625,7 @@
         <v>4794.4480000000003</v>
       </c>
     </row>
-    <row r="707" spans="1:15">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A707" s="3">
         <v>42669</v>
       </c>
@@ -33670,7 +33672,7 @@
         <v>4791.6109999999999</v>
       </c>
     </row>
-    <row r="708" spans="1:15">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A708" s="3">
         <v>42670</v>
       </c>
@@ -33717,7 +33719,7 @@
         <v>4792.1480000000001</v>
       </c>
     </row>
-    <row r="709" spans="1:15">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A709" s="3">
         <v>42671</v>
       </c>
@@ -33764,7 +33766,7 @@
         <v>4796.7240000000002</v>
       </c>
     </row>
-    <row r="710" spans="1:15">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A710" s="3">
         <v>42674</v>
       </c>
@@ -33811,7 +33813,7 @@
         <v>4797.9949999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:15">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A711" s="3">
         <v>42675</v>
       </c>
@@ -33858,7 +33860,7 @@
         <v>4798.933</v>
       </c>
     </row>
-    <row r="712" spans="1:15">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A712" s="3">
         <v>42676</v>
       </c>
@@ -33905,7 +33907,7 @@
         <v>4803.8280000000004</v>
       </c>
     </row>
-    <row r="713" spans="1:15">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A713" s="3">
         <v>42677</v>
       </c>
@@ -33952,7 +33954,7 @@
         <v>4801.125</v>
       </c>
     </row>
-    <row r="714" spans="1:15">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A714" s="3">
         <v>42678</v>
       </c>
@@ -33999,7 +34001,7 @@
         <v>4793.2150000000001</v>
       </c>
     </row>
-    <row r="715" spans="1:15">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A715" s="3">
         <v>42681</v>
       </c>
@@ -34046,7 +34048,7 @@
         <v>4797.34</v>
       </c>
     </row>
-    <row r="716" spans="1:15">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A716" s="3">
         <v>42682</v>
       </c>
@@ -34093,7 +34095,7 @@
         <v>4809.0069999999996</v>
       </c>
     </row>
-    <row r="717" spans="1:15">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A717" s="3">
         <v>42683</v>
       </c>
@@ -34140,7 +34142,7 @@
         <v>4792.759</v>
       </c>
     </row>
-    <row r="718" spans="1:15">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A718" s="3">
         <v>42684</v>
       </c>
@@ -34187,7 +34189,7 @@
         <v>4742.9650000000001</v>
       </c>
     </row>
-    <row r="719" spans="1:15">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A719" s="3">
         <v>42685</v>
       </c>
@@ -34234,7 +34236,7 @@
         <v>4698.2439999999997</v>
       </c>
     </row>
-    <row r="720" spans="1:15">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" s="3">
         <v>42688</v>
       </c>
@@ -34281,7 +34283,7 @@
         <v>4643.4709999999995</v>
       </c>
     </row>
-    <row r="721" spans="1:15">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A721" s="3">
         <v>42689</v>
       </c>
@@ -34328,7 +34330,7 @@
         <v>4637.6289999999999</v>
       </c>
     </row>
-    <row r="722" spans="1:15">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A722" s="3">
         <v>42690</v>
       </c>
@@ -34375,7 +34377,7 @@
         <v>4652.7759999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:15">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" s="3">
         <v>42691</v>
       </c>
@@ -34422,7 +34424,7 @@
         <v>4653.5739999999996</v>
       </c>
     </row>
-    <row r="724" spans="1:15">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A724" s="3">
         <v>42692</v>
       </c>
@@ -34469,7 +34471,7 @@
         <v>4654.8540000000003</v>
       </c>
     </row>
-    <row r="725" spans="1:15">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A725" s="3">
         <v>42695</v>
       </c>
@@ -34516,7 +34518,7 @@
         <v>4656.9059999999999</v>
       </c>
     </row>
-    <row r="726" spans="1:15">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A726" s="3">
         <v>42696</v>
       </c>
@@ -34563,7 +34565,7 @@
         <v>4668.777</v>
       </c>
     </row>
-    <row r="727" spans="1:15">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A727" s="3">
         <v>42697</v>
       </c>
@@ -34610,7 +34612,7 @@
         <v>4664.482</v>
       </c>
     </row>
-    <row r="728" spans="1:15">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A728" s="3">
         <v>42699</v>
       </c>
@@ -34657,7 +34659,7 @@
         <v>4668.8770000000004</v>
       </c>
     </row>
-    <row r="729" spans="1:15">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A729" s="3">
         <v>42702</v>
       </c>
@@ -34704,7 +34706,7 @@
         <v>4672.2389999999996</v>
       </c>
     </row>
-    <row r="730" spans="1:15">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A730" s="3">
         <v>42703</v>
       </c>
@@ -34751,7 +34753,7 @@
         <v>4674.4650000000001</v>
       </c>
     </row>
-    <row r="731" spans="1:15">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A731" s="3">
         <v>42704</v>
       </c>
@@ -34798,7 +34800,7 @@
         <v>4668.8599999999997</v>
       </c>
     </row>
-    <row r="732" spans="1:15">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A732" s="3">
         <v>42705</v>
       </c>
@@ -34845,7 +34847,7 @@
         <v>4663.9080000000004</v>
       </c>
     </row>
-    <row r="733" spans="1:15">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A733" s="3">
         <v>42706</v>
       </c>
@@ -34892,7 +34894,7 @@
         <v>4665.7879999999996</v>
       </c>
     </row>
-    <row r="734" spans="1:15">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A734" s="3">
         <v>42709</v>
       </c>
@@ -34939,7 +34941,7 @@
         <v>4670.0140000000001</v>
       </c>
     </row>
-    <row r="735" spans="1:15">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A735" s="3">
         <v>42710</v>
       </c>
@@ -34986,7 +34988,7 @@
         <v>4669.9830000000002</v>
       </c>
     </row>
-    <row r="736" spans="1:15">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A736" s="3">
         <v>42711</v>
       </c>
@@ -35033,7 +35035,7 @@
         <v>4672.3180000000002</v>
       </c>
     </row>
-    <row r="737" spans="1:15">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A737" s="3">
         <v>42712</v>
       </c>
@@ -35080,7 +35082,7 @@
         <v>4673.2020000000002</v>
       </c>
     </row>
-    <row r="738" spans="1:15">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A738" s="3">
         <v>42713</v>
       </c>
@@ -35127,7 +35129,7 @@
         <v>4675.6570000000002</v>
       </c>
     </row>
-    <row r="739" spans="1:15">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A739" s="3">
         <v>42716</v>
       </c>
@@ -35174,7 +35176,7 @@
         <v>4677.1400000000003</v>
       </c>
     </row>
-    <row r="740" spans="1:15">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A740" s="3">
         <v>42717</v>
       </c>
@@ -35221,7 +35223,7 @@
         <v>4677.9170000000004</v>
       </c>
     </row>
-    <row r="741" spans="1:15">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A741" s="3">
         <v>42718</v>
       </c>
@@ -35268,7 +35270,7 @@
         <v>4679.5789999999997</v>
       </c>
     </row>
-    <row r="742" spans="1:15">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A742" s="3">
         <v>42719</v>
       </c>
@@ -35315,7 +35317,7 @@
         <v>4669.2150000000001</v>
       </c>
     </row>
-    <row r="743" spans="1:15">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A743" s="3">
         <v>42720</v>
       </c>
@@ -35362,7 +35364,7 @@
         <v>4666.24</v>
       </c>
     </row>
-    <row r="744" spans="1:15">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A744" s="3">
         <v>42723</v>
       </c>
@@ -35409,7 +35411,7 @@
         <v>4669.5940000000001</v>
       </c>
     </row>
-    <row r="745" spans="1:15">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A745" s="3">
         <v>42724</v>
       </c>
@@ -35456,7 +35458,7 @@
         <v>4673.4139999999998</v>
       </c>
     </row>
-    <row r="746" spans="1:15">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A746" s="3">
         <v>42725</v>
       </c>
@@ -35503,7 +35505,7 @@
         <v>4695.7250000000004</v>
       </c>
     </row>
-    <row r="747" spans="1:15">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A747" s="3">
         <v>42726</v>
       </c>
@@ -35550,7 +35552,7 @@
         <v>4701.6570000000002</v>
       </c>
     </row>
-    <row r="748" spans="1:15">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A748" s="3">
         <v>42727</v>
       </c>
@@ -35597,7 +35599,7 @@
         <v>4700.8890000000001</v>
       </c>
     </row>
-    <row r="749" spans="1:15">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A749" s="3">
         <v>42731</v>
       </c>
@@ -35644,7 +35646,7 @@
         <v>4714.8059999999996</v>
       </c>
     </row>
-    <row r="750" spans="1:15">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A750" s="3">
         <v>42732</v>
       </c>
@@ -35691,7 +35693,7 @@
         <v>4710.152</v>
       </c>
     </row>
-    <row r="751" spans="1:15">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A751" s="3">
         <v>42733</v>
       </c>
@@ -35738,7 +35740,7 @@
         <v>4709.1949999999997</v>
       </c>
     </row>
-    <row r="752" spans="1:15">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A752" s="3">
         <v>42734</v>
       </c>
@@ -35785,7 +35787,7 @@
         <v>4705.5320000000002</v>
       </c>
     </row>
-    <row r="753" spans="1:15">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A753" s="3">
         <v>42738</v>
       </c>
@@ -35832,7 +35834,7 @@
         <v>4708.9009999999998</v>
       </c>
     </row>
-    <row r="754" spans="1:15">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A754" s="3">
         <v>42739</v>
       </c>
@@ -35879,7 +35881,7 @@
         <v>4701.1149999999998</v>
       </c>
     </row>
-    <row r="755" spans="1:15">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A755" s="3">
         <v>42740</v>
       </c>
@@ -35926,7 +35928,7 @@
         <v>4709.6750000000002</v>
       </c>
     </row>
-    <row r="756" spans="1:15">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A756" s="3">
         <v>42741</v>
       </c>
@@ -35973,7 +35975,7 @@
         <v>4712.0889999999999</v>
       </c>
     </row>
-    <row r="757" spans="1:15">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A757" s="3">
         <v>42744</v>
       </c>
@@ -36020,7 +36022,7 @@
         <v>4718.6440000000002</v>
       </c>
     </row>
-    <row r="758" spans="1:15">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A758" s="3">
         <v>42745</v>
       </c>
@@ -36067,7 +36069,7 @@
         <v>4724.8429999999998</v>
       </c>
     </row>
-    <row r="759" spans="1:15">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A759" s="3">
         <v>42746</v>
       </c>
@@ -36114,7 +36116,7 @@
         <v>4727.4889999999996</v>
       </c>
     </row>
-    <row r="760" spans="1:15">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A760" s="3">
         <v>42747</v>
       </c>
@@ -36161,7 +36163,7 @@
         <v>4745.5879999999997</v>
       </c>
     </row>
-    <row r="761" spans="1:15">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A761" s="3">
         <v>42748</v>
       </c>
@@ -36208,7 +36210,7 @@
         <v>4750.1049999999996</v>
       </c>
     </row>
-    <row r="762" spans="1:15">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A762" s="3">
         <v>42752</v>
       </c>
@@ -36255,7 +36257,7 @@
         <v>4766.5519999999997</v>
       </c>
     </row>
-    <row r="763" spans="1:15">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A763" s="3">
         <v>42753</v>
       </c>
@@ -36302,7 +36304,7 @@
         <v>4760.6559999999999</v>
       </c>
     </row>
-    <row r="764" spans="1:15">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A764" s="3">
         <v>42754</v>
       </c>
@@ -36349,7 +36351,7 @@
         <v>4766.0519999999997</v>
       </c>
     </row>
-    <row r="765" spans="1:15">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A765" s="3">
         <v>42755</v>
       </c>
@@ -36396,7 +36398,7 @@
         <v>4770.6970000000001</v>
       </c>
     </row>
-    <row r="766" spans="1:15">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A766" s="3">
         <v>42758</v>
       </c>
@@ -36443,7 +36445,7 @@
         <v>4779.2690000000002</v>
       </c>
     </row>
-    <row r="767" spans="1:15">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A767" s="3">
         <v>42759</v>
       </c>
@@ -36490,7 +36492,7 @@
         <v>4784.5129999999999</v>
       </c>
     </row>
-    <row r="768" spans="1:15">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A768" s="3">
         <v>42760</v>
       </c>
@@ -36537,7 +36539,7 @@
         <v>4784.4269999999997</v>
       </c>
     </row>
-    <row r="769" spans="1:15">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A769" s="3">
         <v>42761</v>
       </c>
@@ -36584,7 +36586,7 @@
         <v>4793.7120000000004</v>
       </c>
     </row>
-    <row r="770" spans="1:15">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A770" s="3">
         <v>42762</v>
       </c>
@@ -36631,7 +36633,7 @@
         <v>4796.5860000000002</v>
       </c>
     </row>
-    <row r="771" spans="1:15">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A771" s="3">
         <v>42765</v>
       </c>
@@ -36678,7 +36680,7 @@
         <v>4798.6260000000002</v>
       </c>
     </row>
-    <row r="772" spans="1:15">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A772" s="3">
         <v>42766</v>
       </c>
@@ -36725,7 +36727,7 @@
         <v>4800.0219999999999</v>
       </c>
     </row>
-    <row r="773" spans="1:15">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A773" s="3">
         <v>42767</v>
       </c>
@@ -36772,7 +36774,7 @@
         <v>4809.0810000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:15">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A774" s="3">
         <v>42768</v>
       </c>
@@ -36819,7 +36821,7 @@
         <v>4799.6049999999996</v>
       </c>
     </row>
-    <row r="775" spans="1:15">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A775" s="3">
         <v>42769</v>
       </c>
@@ -36866,7 +36868,7 @@
         <v>4806.4229999999998</v>
       </c>
     </row>
-    <row r="776" spans="1:15">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A776" s="3">
         <v>42772</v>
       </c>
@@ -36913,7 +36915,7 @@
         <v>4804.7430000000004</v>
       </c>
     </row>
-    <row r="777" spans="1:15">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A777" s="3">
         <v>42773</v>
       </c>
@@ -36960,7 +36962,7 @@
         <v>4602.0870000000004</v>
       </c>
     </row>
-    <row r="778" spans="1:15">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A778" s="3">
         <v>42774</v>
       </c>
@@ -37007,7 +37009,7 @@
         <v>4600.9319999999998</v>
       </c>
     </row>
-    <row r="779" spans="1:15">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A779" s="3">
         <v>42775</v>
       </c>
@@ -37054,7 +37056,7 @@
         <v>4598.1139999999996</v>
       </c>
     </row>
-    <row r="780" spans="1:15">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A780" s="3">
         <v>42776</v>
       </c>
@@ -37101,7 +37103,7 @@
         <v>4593.7209999999995</v>
       </c>
     </row>
-    <row r="781" spans="1:15">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A781" s="3">
         <v>42779</v>
       </c>
@@ -37148,7 +37150,7 @@
         <v>4590.3100000000004</v>
       </c>
     </row>
-    <row r="782" spans="1:15">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A782" s="3">
         <v>42780</v>
       </c>
@@ -37195,7 +37197,7 @@
         <v>4589.88</v>
       </c>
     </row>
-    <row r="783" spans="1:15">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A783" s="3">
         <v>42781</v>
       </c>
@@ -37242,7 +37244,7 @@
         <v>4593.9520000000002</v>
       </c>
     </row>
-    <row r="784" spans="1:15">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A784" s="3">
         <v>42782</v>
       </c>
@@ -37289,7 +37291,7 @@
         <v>4591.5460000000003</v>
       </c>
     </row>
-    <row r="785" spans="1:15">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A785" s="3">
         <v>42783</v>
       </c>
@@ -37336,7 +37338,7 @@
         <v>4591.0410000000002</v>
       </c>
     </row>
-    <row r="786" spans="1:15">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A786" s="3">
         <v>42787</v>
       </c>
@@ -37383,7 +37385,7 @@
         <v>4592.3429999999998</v>
       </c>
     </row>
-    <row r="787" spans="1:15">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A787" s="3">
         <v>42788</v>
       </c>
@@ -37430,7 +37432,7 @@
         <v>4597.1019999999999</v>
       </c>
     </row>
-    <row r="788" spans="1:15">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A788" s="3">
         <v>42789</v>
       </c>
@@ -37477,7 +37479,7 @@
         <v>4605.18</v>
       </c>
     </row>
-    <row r="789" spans="1:15">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A789" s="3">
         <v>42790</v>
       </c>
@@ -37524,7 +37526,7 @@
         <v>4613.1130000000003</v>
       </c>
     </row>
-    <row r="790" spans="1:15">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A790" s="3">
         <v>42793</v>
       </c>
@@ -37571,7 +37573,7 @@
         <v>4608.7979999999998</v>
       </c>
     </row>
-    <row r="791" spans="1:15">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A791" s="3">
         <v>42794</v>
       </c>
@@ -37618,7 +37620,7 @@
         <v>4613.152</v>
       </c>
     </row>
-    <row r="792" spans="1:15">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A792" s="3">
         <v>42795</v>
       </c>
@@ -37665,7 +37667,7 @@
         <v>4603.8559999999998</v>
       </c>
     </row>
-    <row r="793" spans="1:15">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A793" s="3">
         <v>42796</v>
       </c>
@@ -37712,7 +37714,7 @@
         <v>4608.0370000000003</v>
       </c>
     </row>
-    <row r="794" spans="1:15">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A794" s="3">
         <v>42797</v>
       </c>
@@ -37759,7 +37761,7 @@
         <v>4609.6279999999997</v>
       </c>
     </row>
-    <row r="795" spans="1:15">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A795" s="3">
         <v>42800</v>
       </c>
@@ -37806,7 +37808,7 @@
         <v>4610.4459999999999</v>
       </c>
     </row>
-    <row r="796" spans="1:15">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A796" s="3">
         <v>42801</v>
       </c>
@@ -37853,7 +37855,7 @@
         <v>4611.8019999999997</v>
       </c>
     </row>
-    <row r="797" spans="1:15">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A797" s="3">
         <v>42802</v>
       </c>
@@ -37900,7 +37902,7 @@
         <v>4610.7330000000002</v>
       </c>
     </row>
-    <row r="798" spans="1:15">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A798" s="3">
         <v>42803</v>
       </c>
@@ -37947,7 +37949,7 @@
         <v>4611.0029999999997</v>
       </c>
     </row>
-    <row r="799" spans="1:15">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A799" s="3">
         <v>42804</v>
       </c>
@@ -37994,7 +37996,7 @@
         <v>4623.04</v>
       </c>
     </row>
-    <row r="800" spans="1:15">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A800" s="3">
         <v>42807</v>
       </c>
@@ -38041,7 +38043,7 @@
         <v>4624.6710000000003</v>
       </c>
     </row>
-    <row r="801" spans="1:15">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A801" s="3">
         <v>42808</v>
       </c>
@@ -38088,7 +38090,7 @@
         <v>4627.9549999999999</v>
       </c>
     </row>
-    <row r="802" spans="1:15">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A802" s="3">
         <v>42809</v>
       </c>
@@ -38135,7 +38137,7 @@
         <v>4631.4250000000002</v>
       </c>
     </row>
-    <row r="803" spans="1:15">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A803" s="3">
         <v>42810</v>
       </c>
@@ -38182,7 +38184,7 @@
         <v>4643.3909999999996</v>
       </c>
     </row>
-    <row r="804" spans="1:15">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A804" s="3">
         <v>42811</v>
       </c>
@@ -38229,7 +38231,7 @@
         <v>4653.9520000000002</v>
       </c>
     </row>
-    <row r="805" spans="1:15">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A805" s="3">
         <v>42814</v>
       </c>
@@ -38276,7 +38278,7 @@
         <v>4652.8450000000003</v>
       </c>
     </row>
-    <row r="806" spans="1:15">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A806" s="3">
         <v>42815</v>
       </c>
@@ -38323,7 +38325,7 @@
         <v>4666.5050000000001</v>
       </c>
     </row>
-    <row r="807" spans="1:15">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A807" s="3">
         <v>42816</v>
       </c>
@@ -38370,7 +38372,7 @@
         <v>4668.4579999999996</v>
       </c>
     </row>
-    <row r="808" spans="1:15">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A808" s="3">
         <v>42817</v>
       </c>
@@ -38417,7 +38419,7 @@
         <v>4667.4250000000002</v>
       </c>
     </row>
-    <row r="809" spans="1:15">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A809" s="3">
         <v>42818</v>
       </c>
@@ -38464,7 +38466,7 @@
         <v>4677.5860000000002</v>
       </c>
     </row>
-    <row r="810" spans="1:15">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A810" s="3">
         <v>42821</v>
       </c>
@@ -38511,7 +38513,7 @@
         <v>4693.4009999999998</v>
       </c>
     </row>
-    <row r="811" spans="1:15">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A811" s="3">
         <v>42822</v>
       </c>
@@ -38558,7 +38560,7 @@
         <v>4703.8770000000004</v>
       </c>
     </row>
-    <row r="812" spans="1:15">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A812" s="3">
         <v>42823</v>
       </c>
@@ -38605,7 +38607,7 @@
         <v>4718.4620000000004</v>
       </c>
     </row>
-    <row r="813" spans="1:15">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A813" s="3">
         <v>42824</v>
       </c>
@@ -38652,7 +38654,7 @@
         <v>4715.067</v>
       </c>
     </row>
-    <row r="814" spans="1:15">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A814" s="3">
         <v>42825</v>
       </c>
@@ -38699,7 +38701,7 @@
         <v>4714.4939999999997</v>
       </c>
     </row>
-    <row r="815" spans="1:15">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A815" s="3">
         <v>42828</v>
       </c>
@@ -38746,7 +38748,7 @@
         <v>4722.0839999999998</v>
       </c>
     </row>
-    <row r="816" spans="1:15">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A816" s="3">
         <v>42829</v>
       </c>
@@ -38793,7 +38795,7 @@
         <v>4707.067</v>
       </c>
     </row>
-    <row r="817" spans="1:15">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A817" s="3">
         <v>42830</v>
       </c>
@@ -38840,7 +38842,7 @@
         <v>4718.0820000000003</v>
       </c>
     </row>
-    <row r="818" spans="1:15">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A818" s="3">
         <v>42831</v>
       </c>
@@ -38887,7 +38889,7 @@
         <v>4722.9290000000001</v>
       </c>
     </row>
-    <row r="819" spans="1:15">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A819" s="3">
         <v>42832</v>
       </c>
@@ -38934,7 +38936,7 @@
         <v>4737.6400000000003</v>
       </c>
     </row>
-    <row r="820" spans="1:15">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A820" s="3">
         <v>42835</v>
       </c>
@@ -38981,7 +38983,7 @@
         <v>4741.9489999999996</v>
       </c>
     </row>
-    <row r="821" spans="1:15">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A821" s="3">
         <v>42836</v>
       </c>
@@ -39028,7 +39030,7 @@
         <v>4735.165</v>
       </c>
     </row>
-    <row r="822" spans="1:15">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A822" s="3">
         <v>42837</v>
       </c>
@@ -39075,7 +39077,7 @@
         <v>4730.7489999999998</v>
       </c>
     </row>
-    <row r="823" spans="1:15">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A823" s="3">
         <v>42838</v>
       </c>
@@ -39122,7 +39124,7 @@
         <v>4731.6639999999998</v>
       </c>
     </row>
-    <row r="824" spans="1:15">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A824" s="3">
         <v>42842</v>
       </c>
@@ -39169,7 +39171,7 @@
         <v>4746.8289999999997</v>
       </c>
     </row>
-    <row r="825" spans="1:15">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A825" s="3">
         <v>42843</v>
       </c>
@@ -39216,7 +39218,7 @@
         <v>4754.66</v>
       </c>
     </row>
-    <row r="826" spans="1:15">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A826" s="3">
         <v>42844</v>
       </c>
@@ -39263,7 +39265,7 @@
         <v>4756.192</v>
       </c>
     </row>
-    <row r="827" spans="1:15">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A827" s="3">
         <v>42845</v>
       </c>
@@ -39310,7 +39312,7 @@
         <v>4755.21</v>
       </c>
     </row>
-    <row r="828" spans="1:15">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A828" s="3">
         <v>42846</v>
       </c>
@@ -39357,7 +39359,7 @@
         <v>4756.5110000000004</v>
       </c>
     </row>
-    <row r="829" spans="1:15">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A829" s="3">
         <v>42849</v>
       </c>
@@ -39404,7 +39406,7 @@
         <v>4782.5789999999997</v>
       </c>
     </row>
-    <row r="830" spans="1:15">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A830" s="3">
         <v>42850</v>
       </c>
@@ -39451,7 +39453,7 @@
         <v>4779.2719999999999</v>
       </c>
     </row>
-    <row r="831" spans="1:15">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A831" s="3">
         <v>42851</v>
       </c>
@@ -39498,7 +39500,7 @@
         <v>4776.7460000000001</v>
       </c>
     </row>
-    <row r="832" spans="1:15">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A832" s="3">
         <v>42852</v>
       </c>
@@ -39545,7 +39547,7 @@
         <v>4779.1440000000002</v>
       </c>
     </row>
-    <row r="833" spans="1:15">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A833" s="3">
         <v>42853</v>
       </c>
@@ -39592,7 +39594,7 @@
         <v>4791.5929999999998</v>
       </c>
     </row>
-    <row r="834" spans="1:15">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A834" s="3">
         <v>42856</v>
       </c>
@@ -39639,7 +39641,7 @@
         <v>4794.6000000000004</v>
       </c>
     </row>
-    <row r="835" spans="1:15">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A835" s="3">
         <v>42857</v>
       </c>
@@ -39686,7 +39688,7 @@
         <v>4810.777</v>
       </c>
     </row>
-    <row r="836" spans="1:15">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A836" s="3">
         <v>42858</v>
       </c>
@@ -39733,7 +39735,7 @@
         <v>4807.7070000000003</v>
       </c>
     </row>
-    <row r="837" spans="1:15">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A837" s="3">
         <v>42859</v>
       </c>
@@ -39780,7 +39782,7 @@
         <v>4816.6559999999999</v>
       </c>
     </row>
-    <row r="838" spans="1:15">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A838" s="3">
         <v>42860</v>
       </c>
@@ -39827,7 +39829,7 @@
         <v>4812.7179999999998</v>
       </c>
     </row>
-    <row r="839" spans="1:15">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A839" s="3">
         <v>42863</v>
       </c>
@@ -39874,7 +39876,7 @@
         <v>4809.6689999999999</v>
       </c>
     </row>
-    <row r="840" spans="1:15">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A840" s="3">
         <v>42864</v>
       </c>
@@ -39921,7 +39923,7 @@
         <v>4812.5320000000002</v>
       </c>
     </row>
-    <row r="841" spans="1:15">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A841" s="3">
         <v>42865</v>
       </c>
@@ -39968,7 +39970,7 @@
         <v>4806.1610000000001</v>
       </c>
     </row>
-    <row r="842" spans="1:15">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A842" s="3">
         <v>42866</v>
       </c>
@@ -40015,7 +40017,7 @@
         <v>4806.6959999999999</v>
       </c>
     </row>
-    <row r="843" spans="1:15">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A843" s="3">
         <v>42867</v>
       </c>
@@ -40062,7 +40064,7 @@
         <v>4809.7349999999997</v>
       </c>
     </row>
-    <row r="844" spans="1:15">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A844" s="3">
         <v>42870</v>
       </c>
@@ -40109,7 +40111,7 @@
         <v>4810.3389999999999</v>
       </c>
     </row>
-    <row r="845" spans="1:15">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A845" s="3">
         <v>42871</v>
       </c>
@@ -40156,7 +40158,7 @@
         <v>4813.5159999999996</v>
       </c>
     </row>
-    <row r="846" spans="1:15">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A846" s="3">
         <v>42872</v>
       </c>
@@ -40203,7 +40205,7 @@
         <v>4813.6490000000003</v>
       </c>
     </row>
-    <row r="847" spans="1:15">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A847" s="3">
         <v>42873</v>
       </c>
@@ -40250,7 +40252,7 @@
         <v>4806.366</v>
       </c>
     </row>
-    <row r="848" spans="1:15">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A848" s="3">
         <v>42874</v>
       </c>
@@ -40297,7 +40299,7 @@
         <v>4808.2089999999998</v>
       </c>
     </row>
-    <row r="849" spans="1:15">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A849" s="3">
         <v>42877</v>
       </c>
@@ -40344,7 +40346,7 @@
         <v>4805.973</v>
       </c>
     </row>
-    <row r="850" spans="1:15">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A850" s="3">
         <v>42878</v>
       </c>
@@ -40391,7 +40393,7 @@
         <v>4808.2030000000004</v>
       </c>
     </row>
-    <row r="851" spans="1:15">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A851" s="3">
         <v>42879</v>
       </c>
@@ -40438,7 +40440,7 @@
         <v>4814.6509999999998</v>
       </c>
     </row>
-    <row r="852" spans="1:15">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A852" s="3">
         <v>42880</v>
       </c>
@@ -40485,7 +40487,7 @@
         <v>4818.0879999999997</v>
       </c>
     </row>
-    <row r="853" spans="1:15">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A853" s="3">
         <v>42881</v>
       </c>
@@ -40532,7 +40534,7 @@
         <v>4822.1559999999999</v>
       </c>
     </row>
-    <row r="854" spans="1:15">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A854" s="3">
         <v>42885</v>
       </c>
@@ -40579,7 +40581,7 @@
         <v>4832.7969999999996</v>
       </c>
     </row>
-    <row r="855" spans="1:15">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A855" s="3">
         <v>42886</v>
       </c>
@@ -40626,7 +40628,7 @@
         <v>4841.8010000000004</v>
       </c>
     </row>
-    <row r="856" spans="1:15">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A856" s="3">
         <v>42887</v>
       </c>
@@ -40673,7 +40675,7 @@
         <v>4850.8580000000002</v>
       </c>
     </row>
-    <row r="857" spans="1:15">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A857" s="3">
         <v>42888</v>
       </c>
@@ -40720,7 +40722,7 @@
         <v>4850.4690000000001</v>
       </c>
     </row>
-    <row r="858" spans="1:15">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A858" s="3">
         <v>42891</v>
       </c>
@@ -40767,7 +40769,7 @@
         <v>4853.8860000000004</v>
       </c>
     </row>
-    <row r="859" spans="1:15">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A859" s="3">
         <v>42892</v>
       </c>
@@ -40814,7 +40816,7 @@
         <v>4853.125</v>
       </c>
     </row>
-    <row r="860" spans="1:15">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A860" s="3">
         <v>42893</v>
       </c>
@@ -40861,7 +40863,7 @@
         <v>4853.018</v>
       </c>
     </row>
-    <row r="861" spans="1:15">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A861" s="3">
         <v>42894</v>
       </c>
@@ -40908,7 +40910,7 @@
         <v>4854.2520000000004</v>
       </c>
     </row>
-    <row r="862" spans="1:15">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A862" s="3">
         <v>42895</v>
       </c>
@@ -40955,7 +40957,7 @@
         <v>4854.451</v>
       </c>
     </row>
-    <row r="863" spans="1:15">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A863" s="3">
         <v>42898</v>
       </c>
@@ -41002,7 +41004,7 @@
         <v>4857.7820000000002</v>
       </c>
     </row>
-    <row r="864" spans="1:15">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A864" s="3">
         <v>42899</v>
       </c>
@@ -41049,7 +41051,7 @@
         <v>4891.6270000000004</v>
       </c>
     </row>
-    <row r="865" spans="1:15">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A865" s="3">
         <v>42900</v>
       </c>
@@ -41096,7 +41098,7 @@
         <v>4901.067</v>
       </c>
     </row>
-    <row r="866" spans="1:15">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A866" s="3">
         <v>42901</v>
       </c>
@@ -41143,7 +41145,7 @@
         <v>4898.7280000000001</v>
       </c>
     </row>
-    <row r="867" spans="1:15">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A867" s="3">
         <v>42902</v>
       </c>
@@ -41190,7 +41192,7 @@
         <v>4904.1480000000001</v>
       </c>
     </row>
-    <row r="868" spans="1:15">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A868" s="3">
         <v>42905</v>
       </c>
@@ -41237,7 +41239,7 @@
         <v>4909.2830000000004</v>
       </c>
     </row>
-    <row r="869" spans="1:15">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A869" s="3">
         <v>42906</v>
       </c>
@@ -41284,7 +41286,7 @@
         <v>4920.643</v>
       </c>
     </row>
-    <row r="870" spans="1:15">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A870" s="3">
         <v>42907</v>
       </c>
@@ -41331,7 +41333,7 @@
         <v>4930.0349999999999</v>
       </c>
     </row>
-    <row r="871" spans="1:15">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A871" s="3">
         <v>42908</v>
       </c>
@@ -41378,7 +41380,7 @@
         <v>4924.0360000000001</v>
       </c>
     </row>
-    <row r="872" spans="1:15">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A872" s="3">
         <v>42909</v>
       </c>
@@ -41425,7 +41427,7 @@
         <v>4925.0029999999997</v>
       </c>
     </row>
-    <row r="873" spans="1:15">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A873" s="3">
         <v>42912</v>
       </c>
@@ -41472,7 +41474,7 @@
         <v>4926.3969999999999</v>
       </c>
     </row>
-    <row r="874" spans="1:15">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A874" s="3">
         <v>42913</v>
       </c>
@@ -41519,7 +41521,7 @@
         <v>4929.8509999999997</v>
       </c>
     </row>
-    <row r="875" spans="1:15">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A875" s="3">
         <v>42914</v>
       </c>
@@ -41566,7 +41568,7 @@
         <v>4930.7430000000004</v>
       </c>
     </row>
-    <row r="876" spans="1:15">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A876" s="3">
         <v>42915</v>
       </c>
@@ -41613,7 +41615,7 @@
         <v>4931.683</v>
       </c>
     </row>
-    <row r="877" spans="1:15">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A877" s="3">
         <v>42916</v>
       </c>
@@ -41660,7 +41662,7 @@
         <v>4931.942</v>
       </c>
     </row>
-    <row r="878" spans="1:15">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A878" s="3">
         <v>42919</v>
       </c>
@@ -41707,7 +41709,7 @@
         <v>4934.4390000000003</v>
       </c>
     </row>
-    <row r="879" spans="1:15">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A879" s="3">
         <v>42921</v>
       </c>
@@ -41754,7 +41756,7 @@
         <v>4932.8239999999996</v>
       </c>
     </row>
-    <row r="880" spans="1:15">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A880" s="3">
         <v>42922</v>
       </c>
@@ -41801,7 +41803,7 @@
         <v>4925.8410000000003</v>
       </c>
     </row>
-    <row r="881" spans="1:15">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A881" s="3">
         <v>42923</v>
       </c>
@@ -41848,7 +41850,7 @@
         <v>4913.0569999999998</v>
       </c>
     </row>
-    <row r="882" spans="1:15">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A882" s="3">
         <v>42926</v>
       </c>
@@ -41895,7 +41897,7 @@
         <v>4911.3900000000003</v>
       </c>
     </row>
-    <row r="883" spans="1:15">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A883" s="3">
         <v>42927</v>
       </c>
@@ -41942,7 +41944,7 @@
         <v>4916.0360000000001</v>
       </c>
     </row>
-    <row r="884" spans="1:15">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A884" s="3">
         <v>42928</v>
       </c>
@@ -41989,7 +41991,7 @@
         <v>4927.1260000000002</v>
       </c>
     </row>
-    <row r="885" spans="1:15">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A885" s="3">
         <v>42929</v>
       </c>
@@ -42036,7 +42038,7 @@
         <v>4926.4369999999999</v>
       </c>
     </row>
-    <row r="886" spans="1:15">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A886" s="3">
         <v>42930</v>
       </c>
@@ -42083,7 +42085,7 @@
         <v>4926.2389999999996</v>
       </c>
     </row>
-    <row r="887" spans="1:15">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A887" s="3">
         <v>42933</v>
       </c>
@@ -42130,7 +42132,7 @@
         <v>4925.866</v>
       </c>
     </row>
-    <row r="888" spans="1:15">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A888" s="3">
         <v>42934</v>
       </c>
@@ -42177,7 +42179,7 @@
         <v>4925.9669999999996</v>
       </c>
     </row>
-    <row r="889" spans="1:15">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A889" s="3">
         <v>42935</v>
       </c>
@@ -42224,7 +42226,7 @@
         <v>4933.9120000000003</v>
       </c>
     </row>
-    <row r="890" spans="1:15">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A890" s="3">
         <v>42936</v>
       </c>
@@ -42271,7 +42273,7 @@
         <v>4939.5990000000002</v>
       </c>
     </row>
-    <row r="891" spans="1:15">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A891" s="3">
         <v>42937</v>
       </c>
@@ -42318,7 +42320,7 @@
         <v>4943.8109999999997</v>
       </c>
     </row>
-    <row r="892" spans="1:15">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A892" s="3">
         <v>42940</v>
       </c>
@@ -42365,7 +42367,7 @@
         <v>4946.509</v>
       </c>
     </row>
-    <row r="893" spans="1:15">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A893" s="3">
         <v>42941</v>
       </c>
@@ -42412,7 +42414,7 @@
         <v>4944.5309999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:15">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A894" s="3">
         <v>42942</v>
       </c>
@@ -42459,7 +42461,7 @@
         <v>4947.2349999999997</v>
       </c>
     </row>
-    <row r="895" spans="1:15">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A895" s="3">
         <v>42943</v>
       </c>
@@ -42506,7 +42508,7 @@
         <v>4947.0550000000003</v>
       </c>
     </row>
-    <row r="896" spans="1:15">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A896" s="3">
         <v>42944</v>
       </c>
@@ -42553,7 +42555,7 @@
         <v>4947.9430000000002</v>
       </c>
     </row>
-    <row r="897" spans="1:15">
+    <row r="897" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A897" s="3">
         <v>42947</v>
       </c>
@@ -42600,7 +42602,7 @@
         <v>4964.9930000000004</v>
       </c>
     </row>
-    <row r="898" spans="1:15">
+    <row r="898" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A898" s="3">
         <v>42948</v>
       </c>
@@ -42647,7 +42649,7 @@
         <v>4967.7309999999998</v>
       </c>
     </row>
-    <row r="899" spans="1:15">
+    <row r="899" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A899" s="3">
         <v>42949</v>
       </c>
@@ -42694,7 +42696,7 @@
         <v>4969.6220000000003</v>
       </c>
     </row>
-    <row r="900" spans="1:15">
+    <row r="900" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A900" s="3">
         <v>42950</v>
       </c>
@@ -42741,7 +42743,7 @@
         <v>4971.4759999999997</v>
       </c>
     </row>
-    <row r="901" spans="1:15">
+    <row r="901" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A901" s="3">
         <v>42951</v>
       </c>
@@ -42788,7 +42790,7 @@
         <v>4969.9399999999996</v>
       </c>
     </row>
-    <row r="902" spans="1:15">
+    <row r="902" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A902" s="3">
         <v>42954</v>
       </c>
@@ -42835,7 +42837,7 @@
         <v>4842.5249999999996</v>
       </c>
     </row>
-    <row r="903" spans="1:15">
+    <row r="903" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A903" s="3">
         <v>42955</v>
       </c>
@@ -42882,7 +42884,7 @@
         <v>4850.9110000000001</v>
       </c>
     </row>
-    <row r="904" spans="1:15">
+    <row r="904" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A904" s="3">
         <v>42956</v>
       </c>
@@ -42929,7 +42931,7 @@
         <v>4848.8289999999997</v>
       </c>
     </row>
-    <row r="905" spans="1:15">
+    <row r="905" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A905" s="3">
         <v>42957</v>
       </c>
@@ -42976,7 +42978,7 @@
         <v>4855.3559999999998</v>
       </c>
     </row>
-    <row r="906" spans="1:15">
+    <row r="906" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A906" s="3">
         <v>42958</v>
       </c>
@@ -43023,7 +43025,7 @@
         <v>4853.9290000000001</v>
       </c>
     </row>
-    <row r="907" spans="1:15">
+    <row r="907" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A907" s="3">
         <v>42961</v>
       </c>
@@ -43070,7 +43072,7 @@
         <v>4843.0550000000003</v>
       </c>
     </row>
-    <row r="908" spans="1:15">
+    <row r="908" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A908" s="3">
         <v>42962</v>
       </c>
@@ -43117,7 +43119,7 @@
         <v>4849.1760000000004</v>
       </c>
     </row>
-    <row r="909" spans="1:15">
+    <row r="909" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A909" s="3">
         <v>42963</v>
       </c>
@@ -43164,7 +43166,7 @@
         <v>4846.0010000000002</v>
       </c>
     </row>
-    <row r="910" spans="1:15">
+    <row r="910" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A910" s="3">
         <v>42964</v>
       </c>
@@ -43211,7 +43213,7 @@
         <v>4845.0290000000005</v>
       </c>
     </row>
-    <row r="911" spans="1:15">
+    <row r="911" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A911" s="3">
         <v>42965</v>
       </c>
@@ -43258,7 +43260,7 @@
         <v>4847.1279999999997</v>
       </c>
     </row>
-    <row r="912" spans="1:15">
+    <row r="912" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A912" s="3">
         <v>42968</v>
       </c>
@@ -43305,7 +43307,7 @@
         <v>4850.6360000000004</v>
       </c>
     </row>
-    <row r="913" spans="1:15">
+    <row r="913" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A913" s="3">
         <v>42969</v>
       </c>
@@ -43352,7 +43354,7 @@
         <v>4859.1880000000001</v>
       </c>
     </row>
-    <row r="914" spans="1:15">
+    <row r="914" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A914" s="3">
         <v>42970</v>
       </c>
@@ -43399,7 +43401,7 @@
         <v>4859.2299999999996</v>
       </c>
     </row>
-    <row r="915" spans="1:15">
+    <row r="915" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A915" s="3">
         <v>42971</v>
       </c>
@@ -43446,7 +43448,7 @@
         <v>4861.4589999999998</v>
       </c>
     </row>
-    <row r="916" spans="1:15">
+    <row r="916" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A916" s="3">
         <v>42972</v>
       </c>
@@ -43493,7 +43495,7 @@
         <v>4868.2920000000004</v>
       </c>
     </row>
-    <row r="917" spans="1:15">
+    <row r="917" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A917" s="3">
         <v>42975</v>
       </c>
@@ -43540,7 +43542,7 @@
         <v>4879.2049999999999</v>
       </c>
     </row>
-    <row r="918" spans="1:15">
+    <row r="918" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A918" s="3">
         <v>42976</v>
       </c>
@@ -43587,7 +43589,7 @@
         <v>4877.5529999999999</v>
       </c>
     </row>
-    <row r="919" spans="1:15">
+    <row r="919" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A919" s="3">
         <v>42977</v>
       </c>
@@ -43634,7 +43636,7 @@
         <v>4867.6319999999996</v>
       </c>
     </row>
-    <row r="920" spans="1:15">
+    <row r="920" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A920" s="3">
         <v>42978</v>
       </c>
@@ -43681,7 +43683,7 @@
         <v>4876.674</v>
       </c>
     </row>
-    <row r="921" spans="1:15">
+    <row r="921" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A921" s="3">
         <v>42979</v>
       </c>
@@ -43728,7 +43730,7 @@
         <v>4874.5389999999998</v>
       </c>
     </row>
-    <row r="922" spans="1:15">
+    <row r="922" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A922" s="3">
         <v>42983</v>
       </c>
@@ -43775,7 +43777,7 @@
         <v>4879.4629999999997</v>
       </c>
     </row>
-    <row r="923" spans="1:15">
+    <row r="923" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A923" s="3">
         <v>42984</v>
       </c>
@@ -43822,7 +43824,7 @@
         <v>4866.1310000000003</v>
       </c>
     </row>
-    <row r="924" spans="1:15">
+    <row r="924" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A924" s="3">
         <v>42985</v>
       </c>
@@ -43869,7 +43871,7 @@
         <v>4867.3509999999997</v>
       </c>
     </row>
-    <row r="925" spans="1:15">
+    <row r="925" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A925" s="3">
         <v>42986</v>
       </c>
@@ -43916,7 +43918,7 @@
         <v>4869.8770000000004</v>
       </c>
     </row>
-    <row r="926" spans="1:15">
+    <row r="926" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A926" s="3">
         <v>42989</v>
       </c>
@@ -43963,7 +43965,7 @@
         <v>4879.8549999999996</v>
       </c>
     </row>
-    <row r="927" spans="1:15">
+    <row r="927" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A927" s="3">
         <v>42990</v>
       </c>
@@ -44010,7 +44012,7 @@
         <v>4887.5569999999998</v>
       </c>
     </row>
-    <row r="928" spans="1:15">
+    <row r="928" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A928" s="3">
         <v>42991</v>
       </c>
@@ -44057,7 +44059,7 @@
         <v>4884.2939999999999</v>
       </c>
     </row>
-    <row r="929" spans="1:15">
+    <row r="929" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A929" s="3">
         <v>42992</v>
       </c>
@@ -44104,7 +44106,7 @@
         <v>4880.3530000000001</v>
       </c>
     </row>
-    <row r="930" spans="1:15">
+    <row r="930" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A930" s="3">
         <v>42993</v>
       </c>
@@ -44151,7 +44153,7 @@
         <v>4890.5460000000003</v>
       </c>
     </row>
-    <row r="931" spans="1:15">
+    <row r="931" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A931" s="3">
         <v>42996</v>
       </c>
@@ -44198,7 +44200,7 @@
         <v>4908.0020000000004</v>
       </c>
     </row>
-    <row r="932" spans="1:15">
+    <row r="932" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A932" s="3">
         <v>42997</v>
       </c>
@@ -44245,7 +44247,7 @@
         <v>4908.2070000000003</v>
       </c>
     </row>
-    <row r="933" spans="1:15">
+    <row r="933" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A933" s="3">
         <v>42998</v>
       </c>
@@ -44292,7 +44294,7 @@
         <v>4912.1319999999996</v>
       </c>
     </row>
-    <row r="934" spans="1:15">
+    <row r="934" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A934" s="3">
         <v>42999</v>
       </c>
@@ -44339,7 +44341,7 @@
         <v>4921.9679999999998</v>
       </c>
     </row>
-    <row r="935" spans="1:15">
+    <row r="935" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A935" s="3">
         <v>43000</v>
       </c>
@@ -44386,7 +44388,7 @@
         <v>4920.6540000000005</v>
       </c>
     </row>
-    <row r="936" spans="1:15">
+    <row r="936" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A936" s="3">
         <v>43003</v>
       </c>
@@ -44433,7 +44435,7 @@
         <v>4914.6220000000003</v>
       </c>
     </row>
-    <row r="937" spans="1:15">
+    <row r="937" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A937" s="3">
         <v>43004</v>
       </c>
@@ -44480,7 +44482,7 @@
         <v>4910.7759999999998</v>
       </c>
     </row>
-    <row r="938" spans="1:15">
+    <row r="938" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A938" s="3">
         <v>43005</v>
       </c>
@@ -44527,7 +44529,7 @@
         <v>4907.5200000000004</v>
       </c>
     </row>
-    <row r="939" spans="1:15">
+    <row r="939" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A939" s="3">
         <v>43006</v>
       </c>
@@ -44574,7 +44576,7 @@
         <v>4904.0720000000001</v>
       </c>
     </row>
-    <row r="940" spans="1:15">
+    <row r="940" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A940" s="3">
         <v>43007</v>
       </c>
@@ -44621,7 +44623,7 @@
         <v>4906.8410000000003</v>
       </c>
     </row>
-    <row r="941" spans="1:15">
+    <row r="941" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A941" s="3">
         <v>43010</v>
       </c>
@@ -44668,7 +44670,7 @@
         <v>4907.99</v>
       </c>
     </row>
-    <row r="942" spans="1:15">
+    <row r="942" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A942" s="3">
         <v>43011</v>
       </c>
@@ -44715,7 +44717,7 @@
         <v>4908.18</v>
       </c>
     </row>
-    <row r="943" spans="1:15">
+    <row r="943" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A943" s="3">
         <v>43012</v>
       </c>
@@ -44762,7 +44764,7 @@
         <v>4914.0870000000004</v>
       </c>
     </row>
-    <row r="944" spans="1:15">
+    <row r="944" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A944" s="3">
         <v>43013</v>
       </c>
@@ -44809,7 +44811,7 @@
         <v>4928.6139999999996</v>
       </c>
     </row>
-    <row r="945" spans="1:15">
+    <row r="945" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A945" s="3">
         <v>43014</v>
       </c>
@@ -44856,7 +44858,7 @@
         <v>4931.3280000000004</v>
       </c>
     </row>
-    <row r="946" spans="1:15">
+    <row r="946" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A946" s="3">
         <v>43017</v>
       </c>
@@ -44903,7 +44905,7 @@
         <v>4940.4669999999996</v>
       </c>
     </row>
-    <row r="947" spans="1:15">
+    <row r="947" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A947" s="3">
         <v>43018</v>
       </c>
@@ -44950,7 +44952,7 @@
         <v>4944.3019999999997</v>
       </c>
     </row>
-    <row r="948" spans="1:15">
+    <row r="948" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A948" s="3">
         <v>43019</v>
       </c>
@@ -44997,7 +44999,7 @@
         <v>4949.07</v>
       </c>
     </row>
-    <row r="949" spans="1:15">
+    <row r="949" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A949" s="3">
         <v>43020</v>
       </c>
@@ -45044,7 +45046,7 @@
         <v>4952.1099999999997</v>
       </c>
     </row>
-    <row r="950" spans="1:15">
+    <row r="950" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A950" s="3">
         <v>43021</v>
       </c>
@@ -45091,7 +45093,7 @@
         <v>4945.3040000000001</v>
       </c>
     </row>
-    <row r="951" spans="1:15">
+    <row r="951" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A951" s="3">
         <v>43024</v>
       </c>
@@ -45138,7 +45140,7 @@
         <v>4950.54</v>
       </c>
     </row>
-    <row r="952" spans="1:15">
+    <row r="952" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A952" s="3">
         <v>43025</v>
       </c>
@@ -45185,7 +45187,7 @@
         <v>4948.8980000000001</v>
       </c>
     </row>
-    <row r="953" spans="1:15">
+    <row r="953" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A953" s="3">
         <v>43026</v>
       </c>
@@ -45232,7 +45234,7 @@
         <v>4946.8419999999996</v>
       </c>
     </row>
-    <row r="954" spans="1:15">
+    <row r="954" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A954" s="3">
         <v>43027</v>
       </c>
@@ -45279,7 +45281,7 @@
         <v>4937.0739999999996</v>
       </c>
     </row>
-    <row r="955" spans="1:15">
+    <row r="955" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A955" s="3">
         <v>43028</v>
       </c>
@@ -45326,7 +45328,7 @@
         <v>4944.0730000000003</v>
       </c>
     </row>
-    <row r="956" spans="1:15">
+    <row r="956" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A956" s="3">
         <v>43031</v>
       </c>
@@ -45373,7 +45375,7 @@
         <v>4950.2960000000003</v>
       </c>
     </row>
-    <row r="957" spans="1:15">
+    <row r="957" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A957" s="3">
         <v>43032</v>
       </c>
@@ -45420,7 +45422,7 @@
         <v>4946.2449999999999</v>
       </c>
     </row>
-    <row r="958" spans="1:15">
+    <row r="958" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A958" s="3">
         <v>43033</v>
       </c>
@@ -45467,7 +45469,7 @@
         <v>4945.8090000000002</v>
       </c>
     </row>
-    <row r="959" spans="1:15">
+    <row r="959" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A959" s="3">
         <v>43034</v>
       </c>
@@ -45514,7 +45516,7 @@
         <v>4949.3069999999998</v>
       </c>
     </row>
-    <row r="960" spans="1:15">
+    <row r="960" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A960" s="3">
         <v>43035</v>
       </c>
@@ -45561,7 +45563,7 @@
         <v>4945.326</v>
       </c>
     </row>
-    <row r="961" spans="1:17">
+    <row r="961" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A961" s="3">
         <v>43038</v>
       </c>
@@ -45608,7 +45610,7 @@
         <v>4944.9889999999996</v>
       </c>
     </row>
-    <row r="962" spans="1:17">
+    <row r="962" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A962" s="3">
         <v>43039</v>
       </c>
@@ -45655,7 +45657,7 @@
         <v>4940.8329999999996</v>
       </c>
     </row>
-    <row r="963" spans="1:17">
+    <row r="963" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A963" s="3">
         <v>43040</v>
       </c>
@@ -45702,7 +45704,7 @@
         <v>4942.107</v>
       </c>
     </row>
-    <row r="964" spans="1:17">
+    <row r="964" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A964" s="3">
         <v>43041</v>
       </c>
@@ -45749,7 +45751,7 @@
         <v>4943.2179999999998</v>
       </c>
     </row>
-    <row r="965" spans="1:17">
+    <row r="965" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A965" s="3">
         <v>43042</v>
       </c>
@@ -45796,7 +45798,7 @@
         <v>4943.6080000000002</v>
       </c>
     </row>
-    <row r="966" spans="1:17">
+    <row r="966" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A966" s="3">
         <v>43045</v>
       </c>
@@ -45843,7 +45845,7 @@
         <v>4941.5659999999998</v>
       </c>
     </row>
-    <row r="967" spans="1:17">
+    <row r="967" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A967" s="3">
         <v>43046</v>
       </c>
@@ -45890,7 +45892,7 @@
         <v>4949.6850000000004</v>
       </c>
     </row>
-    <row r="968" spans="1:17">
+    <row r="968" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A968" s="3">
         <v>43047</v>
       </c>
@@ -45937,7 +45939,7 @@
         <v>4946.9189999999999</v>
       </c>
     </row>
-    <row r="969" spans="1:17">
+    <row r="969" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A969" s="3">
         <v>43048</v>
       </c>
@@ -45984,7 +45986,7 @@
         <v>4944.1369999999997</v>
       </c>
     </row>
-    <row r="970" spans="1:17">
+    <row r="970" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A970" s="3">
         <v>43049</v>
       </c>
@@ -46031,7 +46033,7 @@
         <v>4943.6899999999996</v>
       </c>
     </row>
-    <row r="971" spans="1:17">
+    <row r="971" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A971" s="3">
         <v>43052</v>
       </c>
@@ -46078,7 +46080,7 @@
         <v>4943.2889999999998</v>
       </c>
     </row>
-    <row r="972" spans="1:17">
+    <row r="972" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A972" s="3">
         <v>43053</v>
       </c>
@@ -46125,7 +46127,7 @@
         <v>4953.9219999999996</v>
       </c>
     </row>
-    <row r="973" spans="1:17">
+    <row r="973" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A973" s="3">
         <v>43054</v>
       </c>
@@ -46172,7 +46174,7 @@
         <v>4943.2920000000004</v>
       </c>
     </row>
-    <row r="974" spans="1:17">
+    <row r="974" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A974" s="3">
         <v>43055</v>
       </c>
@@ -46219,164 +46221,8 @@
         <v>4940.1610000000001</v>
       </c>
     </row>
-    <row r="975" spans="1:17">
-      <c r="A975" s="3"/>
-      <c r="B975" s="3"/>
-      <c r="C975" s="3"/>
-      <c r="D975" s="3"/>
-      <c r="E975" s="3"/>
-      <c r="F975" s="3"/>
-      <c r="G975" s="3"/>
-      <c r="H975" s="3"/>
-      <c r="I975" s="1"/>
-      <c r="J975" s="1"/>
-      <c r="K975" s="1"/>
-      <c r="L975" s="1"/>
-      <c r="M975" s="4"/>
-      <c r="N975" s="4"/>
-      <c r="O975" s="4"/>
-      <c r="Q975" s="3"/>
-    </row>
-    <row r="976" spans="1:17">
-      <c r="A976" s="3"/>
-      <c r="B976" s="3"/>
-      <c r="C976" s="3"/>
-      <c r="D976" s="3"/>
-      <c r="E976" s="3"/>
-      <c r="F976" s="3"/>
-      <c r="G976" s="3"/>
-      <c r="H976" s="3"/>
-      <c r="I976" s="1"/>
-      <c r="J976" s="1"/>
-      <c r="K976" s="1"/>
-      <c r="L976" s="1"/>
-      <c r="M976" s="4"/>
-      <c r="N976" s="4"/>
-      <c r="O976" s="4"/>
-      <c r="Q976" s="3"/>
-    </row>
-    <row r="977" spans="1:17">
-      <c r="A977" s="3"/>
-      <c r="B977" s="3"/>
-      <c r="C977" s="3"/>
-      <c r="D977" s="3"/>
-      <c r="E977" s="3"/>
-      <c r="F977" s="3"/>
-      <c r="G977" s="3"/>
-      <c r="H977" s="3"/>
-      <c r="I977" s="1"/>
-      <c r="J977" s="1"/>
-      <c r="K977" s="1"/>
-      <c r="L977" s="1"/>
-      <c r="M977" s="4"/>
-      <c r="N977" s="4"/>
-      <c r="O977" s="4"/>
-      <c r="Q977" s="3"/>
-    </row>
-    <row r="978" spans="1:17">
-      <c r="A978" s="3"/>
-      <c r="B978" s="3"/>
-      <c r="C978" s="3"/>
-      <c r="D978" s="3"/>
-      <c r="E978" s="3"/>
-      <c r="F978" s="3"/>
-      <c r="G978" s="3"/>
-      <c r="H978" s="3"/>
-      <c r="I978" s="1"/>
-      <c r="J978" s="1"/>
-      <c r="K978" s="1"/>
-      <c r="L978" s="1"/>
-      <c r="M978" s="4"/>
-      <c r="N978" s="4"/>
-      <c r="O978" s="4"/>
-      <c r="Q978" s="3"/>
-    </row>
-    <row r="979" spans="1:17">
-      <c r="A979" s="3"/>
-      <c r="B979" s="3"/>
-      <c r="C979" s="3"/>
-      <c r="D979" s="3"/>
-      <c r="E979" s="3"/>
-      <c r="F979" s="3"/>
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
-      <c r="I979" s="1"/>
-      <c r="J979" s="1"/>
-      <c r="K979" s="1"/>
-      <c r="L979" s="1"/>
-      <c r="M979" s="4"/>
-      <c r="N979" s="4"/>
-      <c r="O979" s="4"/>
-      <c r="Q979" s="3"/>
-    </row>
-    <row r="980" spans="1:17">
-      <c r="Q980" s="3"/>
-    </row>
-    <row r="981" spans="1:17">
-      <c r="Q981" s="3"/>
-    </row>
-    <row r="982" spans="1:17">
-      <c r="Q982" s="3"/>
-    </row>
-    <row r="983" spans="1:17">
-      <c r="Q983" s="3"/>
-    </row>
-    <row r="984" spans="1:17">
-      <c r="Q984" s="3"/>
-    </row>
-    <row r="985" spans="1:17">
-      <c r="Q985" s="3"/>
-    </row>
-    <row r="986" spans="1:17">
-      <c r="Q986" s="3"/>
-    </row>
-    <row r="987" spans="1:17">
-      <c r="Q987" s="3"/>
-    </row>
-    <row r="988" spans="1:17">
-      <c r="Q988" s="3"/>
-    </row>
-    <row r="989" spans="1:17">
-      <c r="Q989" s="3"/>
-    </row>
-    <row r="990" spans="1:17">
-      <c r="Q990" s="3"/>
-    </row>
-    <row r="991" spans="1:17">
-      <c r="Q991" s="3"/>
-    </row>
-    <row r="992" spans="1:17">
-      <c r="Q992" s="3"/>
-    </row>
-    <row r="993" spans="17:17">
-      <c r="Q993" s="3"/>
-    </row>
-    <row r="994" spans="17:17">
-      <c r="Q994" s="3"/>
-    </row>
-    <row r="995" spans="17:17">
-      <c r="Q995" s="3"/>
-    </row>
-    <row r="996" spans="17:17">
-      <c r="Q996" s="3"/>
-    </row>
-    <row r="997" spans="17:17">
-      <c r="Q997" s="3"/>
-    </row>
-    <row r="998" spans="17:17">
-      <c r="Q998" s="3"/>
-    </row>
-    <row r="999" spans="17:17">
-      <c r="Q999" s="3"/>
-    </row>
-    <row r="1000" spans="17:17">
-      <c r="Q1000" s="3"/>
-    </row>
-    <row r="1001" spans="17:17">
-      <c r="Q1001" s="3"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:H974">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H974">
     <sortCondition ref="A2:A974"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
